--- a/stock_historical_data/1mo/NBCC.NS.xlsx
+++ b/stock_historical_data/1mo/NBCC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P146"/>
+  <dimension ref="A1:Q147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -568,6 +573,9 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -618,6 +626,9 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -668,6 +679,9 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -718,6 +732,9 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -768,6 +785,9 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -818,6 +838,9 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -868,6 +891,9 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -918,6 +944,9 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -968,6 +997,9 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1018,6 +1050,9 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1068,6 +1103,9 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1118,6 +1156,9 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1168,6 +1209,9 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1218,6 +1262,9 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1268,6 +1315,9 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1318,6 +1368,9 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1368,6 +1421,9 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1418,6 +1474,9 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1468,6 +1527,9 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1518,6 +1580,9 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1568,6 +1633,9 @@
       <c r="P22" t="n">
         <v>0</v>
       </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1618,6 +1686,9 @@
       <c r="P23" t="n">
         <v>0</v>
       </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1668,6 +1739,9 @@
       <c r="P24" t="n">
         <v>0</v>
       </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1718,6 +1792,9 @@
       <c r="P25" t="n">
         <v>0</v>
       </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1768,6 +1845,9 @@
       <c r="P26" t="n">
         <v>0</v>
       </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1818,6 +1898,9 @@
       <c r="P27" t="n">
         <v>0</v>
       </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1868,6 +1951,9 @@
       <c r="P28" t="n">
         <v>0</v>
       </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1918,6 +2004,9 @@
       <c r="P29" t="n">
         <v>0</v>
       </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1968,6 +2057,9 @@
       <c r="P30" t="n">
         <v>0</v>
       </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2018,6 +2110,9 @@
       <c r="P31" t="n">
         <v>0</v>
       </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2068,6 +2163,9 @@
       <c r="P32" t="n">
         <v>0</v>
       </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2118,6 +2216,9 @@
       <c r="P33" t="n">
         <v>0</v>
       </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2168,6 +2269,9 @@
       <c r="P34" t="n">
         <v>0</v>
       </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2218,6 +2322,9 @@
       <c r="P35" t="n">
         <v>0</v>
       </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2268,6 +2375,9 @@
       <c r="P36" t="n">
         <v>0</v>
       </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2318,6 +2428,9 @@
       <c r="P37" t="n">
         <v>0</v>
       </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2368,6 +2481,9 @@
       <c r="P38" t="n">
         <v>0</v>
       </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2418,6 +2534,9 @@
       <c r="P39" t="n">
         <v>0</v>
       </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2468,6 +2587,9 @@
       <c r="P40" t="n">
         <v>0</v>
       </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2518,6 +2640,9 @@
       <c r="P41" t="n">
         <v>0</v>
       </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2568,6 +2693,9 @@
       <c r="P42" t="n">
         <v>0</v>
       </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2618,6 +2746,9 @@
       <c r="P43" t="n">
         <v>0</v>
       </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2668,6 +2799,9 @@
       <c r="P44" t="n">
         <v>0</v>
       </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2718,6 +2852,9 @@
       <c r="P45" t="n">
         <v>0</v>
       </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2768,6 +2905,9 @@
       <c r="P46" t="n">
         <v>0</v>
       </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2818,6 +2958,9 @@
       <c r="P47" t="n">
         <v>0</v>
       </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -2868,6 +3011,9 @@
       <c r="P48" t="n">
         <v>0</v>
       </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2918,6 +3064,9 @@
       <c r="P49" t="n">
         <v>0</v>
       </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -2968,6 +3117,9 @@
       <c r="P50" t="n">
         <v>0</v>
       </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3018,6 +3170,9 @@
       <c r="P51" t="n">
         <v>0</v>
       </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3068,6 +3223,9 @@
       <c r="P52" t="n">
         <v>0</v>
       </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3118,6 +3276,9 @@
       <c r="P53" t="n">
         <v>0</v>
       </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3168,6 +3329,9 @@
       <c r="P54" t="n">
         <v>0</v>
       </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3218,6 +3382,9 @@
       <c r="P55" t="n">
         <v>0</v>
       </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3268,6 +3435,9 @@
       <c r="P56" t="n">
         <v>0</v>
       </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3318,6 +3488,9 @@
       <c r="P57" t="n">
         <v>0</v>
       </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3368,6 +3541,9 @@
       <c r="P58" t="n">
         <v>0</v>
       </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3418,6 +3594,9 @@
       <c r="P59" t="n">
         <v>0</v>
       </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3468,6 +3647,9 @@
       <c r="P60" t="n">
         <v>0</v>
       </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3518,6 +3700,9 @@
       <c r="P61" t="n">
         <v>0</v>
       </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3568,6 +3753,9 @@
       <c r="P62" t="n">
         <v>0</v>
       </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3618,6 +3806,9 @@
       <c r="P63" t="n">
         <v>0</v>
       </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3668,6 +3859,9 @@
       <c r="P64" t="n">
         <v>0</v>
       </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3718,6 +3912,9 @@
       <c r="P65" t="n">
         <v>0</v>
       </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3768,6 +3965,9 @@
       <c r="P66" t="n">
         <v>0</v>
       </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -3818,6 +4018,9 @@
       <c r="P67" t="n">
         <v>0</v>
       </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -3868,6 +4071,9 @@
       <c r="P68" t="n">
         <v>0</v>
       </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -3918,6 +4124,9 @@
       <c r="P69" t="n">
         <v>0</v>
       </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -3968,6 +4177,9 @@
       <c r="P70" t="n">
         <v>0</v>
       </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4018,6 +4230,9 @@
       <c r="P71" t="n">
         <v>0</v>
       </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4068,6 +4283,9 @@
       <c r="P72" t="n">
         <v>0</v>
       </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4118,6 +4336,9 @@
       <c r="P73" t="n">
         <v>0</v>
       </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4168,6 +4389,9 @@
       <c r="P74" t="n">
         <v>0</v>
       </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4218,6 +4442,9 @@
       <c r="P75" t="n">
         <v>0</v>
       </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4268,6 +4495,9 @@
       <c r="P76" t="n">
         <v>0</v>
       </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4318,6 +4548,9 @@
       <c r="P77" t="n">
         <v>0</v>
       </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4368,6 +4601,9 @@
       <c r="P78" t="n">
         <v>0</v>
       </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4418,6 +4654,9 @@
       <c r="P79" t="n">
         <v>0</v>
       </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4468,6 +4707,9 @@
       <c r="P80" t="n">
         <v>0</v>
       </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4518,6 +4760,9 @@
       <c r="P81" t="n">
         <v>0</v>
       </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4568,6 +4813,9 @@
       <c r="P82" t="n">
         <v>0</v>
       </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4618,6 +4866,9 @@
       <c r="P83" t="n">
         <v>0</v>
       </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4668,6 +4919,9 @@
       <c r="P84" t="n">
         <v>0</v>
       </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4718,6 +4972,9 @@
       <c r="P85" t="n">
         <v>0</v>
       </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -4768,6 +5025,9 @@
       <c r="P86" t="n">
         <v>0</v>
       </c>
+      <c r="Q86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -4818,6 +5078,9 @@
       <c r="P87" t="n">
         <v>0</v>
       </c>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -4868,6 +5131,9 @@
       <c r="P88" t="n">
         <v>0</v>
       </c>
+      <c r="Q88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -4918,6 +5184,9 @@
       <c r="P89" t="n">
         <v>0</v>
       </c>
+      <c r="Q89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -4968,6 +5237,9 @@
       <c r="P90" t="n">
         <v>0</v>
       </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -5018,6 +5290,9 @@
       <c r="P91" t="n">
         <v>0</v>
       </c>
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -5068,6 +5343,9 @@
       <c r="P92" t="n">
         <v>0</v>
       </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -5118,6 +5396,9 @@
       <c r="P93" t="n">
         <v>0</v>
       </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -5168,6 +5449,9 @@
       <c r="P94" t="n">
         <v>0</v>
       </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5218,6 +5502,9 @@
       <c r="P95" t="n">
         <v>0</v>
       </c>
+      <c r="Q95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5268,6 +5555,9 @@
       <c r="P96" t="n">
         <v>0</v>
       </c>
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5318,6 +5608,9 @@
       <c r="P97" t="n">
         <v>0</v>
       </c>
+      <c r="Q97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5368,6 +5661,9 @@
       <c r="P98" t="n">
         <v>0</v>
       </c>
+      <c r="Q98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5418,6 +5714,9 @@
       <c r="P99" t="n">
         <v>0</v>
       </c>
+      <c r="Q99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5468,6 +5767,9 @@
       <c r="P100" t="n">
         <v>0</v>
       </c>
+      <c r="Q100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5518,6 +5820,9 @@
       <c r="P101" t="n">
         <v>0</v>
       </c>
+      <c r="Q101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5568,6 +5873,9 @@
       <c r="P102" t="n">
         <v>0</v>
       </c>
+      <c r="Q102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5618,6 +5926,9 @@
       <c r="P103" t="n">
         <v>0</v>
       </c>
+      <c r="Q103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5668,6 +5979,9 @@
       <c r="P104" t="n">
         <v>0</v>
       </c>
+      <c r="Q104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -5718,6 +6032,9 @@
       <c r="P105" t="n">
         <v>0</v>
       </c>
+      <c r="Q105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -5768,6 +6085,9 @@
       <c r="P106" t="n">
         <v>0</v>
       </c>
+      <c r="Q106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -5818,6 +6138,9 @@
       <c r="P107" t="n">
         <v>0</v>
       </c>
+      <c r="Q107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -5868,6 +6191,9 @@
       <c r="P108" t="n">
         <v>0</v>
       </c>
+      <c r="Q108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -5918,6 +6244,9 @@
       <c r="P109" t="n">
         <v>0</v>
       </c>
+      <c r="Q109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -5968,6 +6297,9 @@
       <c r="P110" t="n">
         <v>0</v>
       </c>
+      <c r="Q110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -6018,6 +6350,9 @@
       <c r="P111" t="n">
         <v>0</v>
       </c>
+      <c r="Q111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -6068,6 +6403,9 @@
       <c r="P112" t="n">
         <v>0</v>
       </c>
+      <c r="Q112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -6118,6 +6456,9 @@
       <c r="P113" t="n">
         <v>0</v>
       </c>
+      <c r="Q113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -6168,6 +6509,9 @@
       <c r="P114" t="n">
         <v>0</v>
       </c>
+      <c r="Q114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -6218,6 +6562,9 @@
       <c r="P115" t="n">
         <v>0</v>
       </c>
+      <c r="Q115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6268,6 +6615,9 @@
       <c r="P116" t="n">
         <v>0</v>
       </c>
+      <c r="Q116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6318,6 +6668,9 @@
       <c r="P117" t="n">
         <v>0</v>
       </c>
+      <c r="Q117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6368,6 +6721,9 @@
       <c r="P118" t="n">
         <v>0</v>
       </c>
+      <c r="Q118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6418,6 +6774,9 @@
       <c r="P119" t="n">
         <v>0</v>
       </c>
+      <c r="Q119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6468,6 +6827,9 @@
       <c r="P120" t="n">
         <v>0</v>
       </c>
+      <c r="Q120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6518,6 +6880,9 @@
       <c r="P121" t="n">
         <v>0</v>
       </c>
+      <c r="Q121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6568,6 +6933,9 @@
       <c r="P122" t="n">
         <v>0</v>
       </c>
+      <c r="Q122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6618,6 +6986,9 @@
       <c r="P123" t="n">
         <v>0</v>
       </c>
+      <c r="Q123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -6668,6 +7039,9 @@
       <c r="P124" t="n">
         <v>0</v>
       </c>
+      <c r="Q124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -6718,6 +7092,9 @@
       <c r="P125" t="n">
         <v>0</v>
       </c>
+      <c r="Q125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -6768,6 +7145,9 @@
       <c r="P126" t="n">
         <v>0</v>
       </c>
+      <c r="Q126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -6818,6 +7198,9 @@
       <c r="P127" t="n">
         <v>0</v>
       </c>
+      <c r="Q127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -6868,6 +7251,9 @@
       <c r="P128" t="n">
         <v>0</v>
       </c>
+      <c r="Q128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -6918,6 +7304,9 @@
       <c r="P129" t="n">
         <v>0</v>
       </c>
+      <c r="Q129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -6968,6 +7357,9 @@
       <c r="P130" t="n">
         <v>0</v>
       </c>
+      <c r="Q130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -7018,6 +7410,9 @@
       <c r="P131" t="n">
         <v>0</v>
       </c>
+      <c r="Q131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -7068,6 +7463,9 @@
       <c r="P132" t="n">
         <v>0</v>
       </c>
+      <c r="Q132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -7118,6 +7516,9 @@
       <c r="P133" t="n">
         <v>2</v>
       </c>
+      <c r="Q133" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -7168,6 +7569,9 @@
       <c r="P134" t="n">
         <v>0</v>
       </c>
+      <c r="Q134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -7218,6 +7622,9 @@
       <c r="P135" t="n">
         <v>0</v>
       </c>
+      <c r="Q135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -7268,6 +7675,9 @@
       <c r="P136" t="n">
         <v>0</v>
       </c>
+      <c r="Q136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7318,6 +7728,9 @@
       <c r="P137" t="n">
         <v>0</v>
       </c>
+      <c r="Q137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7368,6 +7781,9 @@
       <c r="P138" t="n">
         <v>0</v>
       </c>
+      <c r="Q138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7418,6 +7834,9 @@
       <c r="P139" t="n">
         <v>0</v>
       </c>
+      <c r="Q139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -7468,6 +7887,9 @@
       <c r="P140" t="n">
         <v>0</v>
       </c>
+      <c r="Q140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -7518,6 +7940,9 @@
       <c r="P141" t="n">
         <v>0</v>
       </c>
+      <c r="Q141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -7568,6 +7993,9 @@
       <c r="P142" t="n">
         <v>0</v>
       </c>
+      <c r="Q142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -7618,6 +8046,9 @@
       <c r="P143" t="n">
         <v>0</v>
       </c>
+      <c r="Q143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -7668,6 +8099,9 @@
       <c r="P144" t="n">
         <v>0</v>
       </c>
+      <c r="Q144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -7718,6 +8152,9 @@
       <c r="P145" t="n">
         <v>0</v>
       </c>
+      <c r="Q145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -7768,6 +8205,60 @@
       <c r="P146" t="n">
         <v>0</v>
       </c>
+      <c r="Q146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B147" t="n">
+        <v>155</v>
+      </c>
+      <c r="C147" t="n">
+        <v>155</v>
+      </c>
+      <c r="D147" t="n">
+        <v>155</v>
+      </c>
+      <c r="E147" t="n">
+        <v>155</v>
+      </c>
+      <c r="F147" t="n">
+        <v>155</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I147" t="n">
+        <v>6</v>
+      </c>
+      <c r="J147" t="n">
+        <v>1</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N147" t="n">
+        <v>22</v>
+      </c>
+      <c r="O147" t="n">
+        <v>0</v>
+      </c>
+      <c r="P147" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q147" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1mo/NBCC.NS.xlsx
+++ b/stock_historical_data/1mo/NBCC.NS.xlsx
@@ -8258,7 +8258,9 @@
       <c r="P147" t="n">
         <v>2</v>
       </c>
-      <c r="Q147" t="inlineStr"/>
+      <c r="Q147" t="n">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1mo/NBCC.NS.xlsx
+++ b/stock_historical_data/1mo/NBCC.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q147"/>
+  <dimension ref="A1:Q157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,31 +526,29 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>41030</v>
+        <v>41000</v>
       </c>
       <c r="B2" t="n">
-        <v>6.400000095367432</v>
+        <v>3.539774942757453</v>
       </c>
       <c r="C2" t="n">
-        <v>6.53000020980835</v>
+        <v>3.627393949732939</v>
       </c>
       <c r="D2" t="n">
-        <v>4.866665840148926</v>
+        <v>3.101684420078952</v>
       </c>
       <c r="E2" t="n">
-        <v>5.880000114440918</v>
-      </c>
-      <c r="F2" t="n">
-        <v>4.945278644561768</v>
-      </c>
+        <v>3.366291046142578</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>6474735</v>
+        <v>38225023</v>
       </c>
       <c r="H2" t="n">
         <v>2012</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -565,45 +563,39 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>18</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>41061</v>
+        <v>41030</v>
       </c>
       <c r="B3" t="n">
-        <v>5.75</v>
+        <v>6.400000095367432</v>
       </c>
       <c r="C3" t="n">
-        <v>6.5</v>
+        <v>6.53000020980835</v>
       </c>
       <c r="D3" t="n">
-        <v>5.539999961853027</v>
+        <v>4.866665840148926</v>
       </c>
       <c r="E3" t="n">
-        <v>6.269999980926514</v>
+        <v>5.880000114440918</v>
       </c>
       <c r="F3" t="n">
-        <v>5.273282051086426</v>
+        <v>4.945278644561768</v>
       </c>
       <c r="G3" t="n">
-        <v>12024735</v>
+        <v>6474735</v>
       </c>
       <c r="H3" t="n">
         <v>2012</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -618,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -632,31 +624,31 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>41091</v>
+        <v>41061</v>
       </c>
       <c r="B4" t="n">
-        <v>6.326665878295898</v>
+        <v>5.75</v>
       </c>
       <c r="C4" t="n">
-        <v>7.199999809265137</v>
+        <v>6.5</v>
       </c>
       <c r="D4" t="n">
-        <v>6.150000095367432</v>
+        <v>5.539999961853027</v>
       </c>
       <c r="E4" t="n">
-        <v>6.376666069030762</v>
+        <v>6.269999980926514</v>
       </c>
       <c r="F4" t="n">
-        <v>5.362992286682129</v>
+        <v>5.273282051086426</v>
       </c>
       <c r="G4" t="n">
-        <v>32791500</v>
+        <v>12024735</v>
       </c>
       <c r="H4" t="n">
         <v>2012</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -671,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -685,31 +677,31 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>41122</v>
+        <v>41091</v>
       </c>
       <c r="B5" t="n">
-        <v>6.346665859222412</v>
+        <v>6.326665878295898</v>
       </c>
       <c r="C5" t="n">
-        <v>6.679999828338623</v>
+        <v>7.199999809265137</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>6.150000095367432</v>
       </c>
       <c r="E5" t="n">
-        <v>6.073332786560059</v>
+        <v>6.376666069030762</v>
       </c>
       <c r="F5" t="n">
-        <v>5.107879161834717</v>
+        <v>5.362992286682129</v>
       </c>
       <c r="G5" t="n">
-        <v>6161610</v>
+        <v>32791500</v>
       </c>
       <c r="H5" t="n">
         <v>2012</v>
       </c>
       <c r="I5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -724,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -738,31 +730,31 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>41153</v>
+        <v>41122</v>
       </c>
       <c r="B6" t="n">
-        <v>6.133333206176758</v>
+        <v>6.346665859222412</v>
       </c>
       <c r="C6" t="n">
-        <v>7.300000190734863</v>
+        <v>6.679999828338623</v>
       </c>
       <c r="D6" t="n">
-        <v>6.083333015441895</v>
+        <v>6</v>
       </c>
       <c r="E6" t="n">
-        <v>6.916666030883789</v>
+        <v>6.073332786560059</v>
       </c>
       <c r="F6" t="n">
-        <v>6.039543151855469</v>
+        <v>5.107879161834717</v>
       </c>
       <c r="G6" t="n">
-        <v>9672345</v>
+        <v>6161610</v>
       </c>
       <c r="H6" t="n">
         <v>2012</v>
       </c>
       <c r="I6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -777,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -791,31 +783,31 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>41183</v>
+        <v>41153</v>
       </c>
       <c r="B7" t="n">
-        <v>6.996665954589844</v>
+        <v>6.133333206176758</v>
       </c>
       <c r="C7" t="n">
-        <v>10.16333293914795</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="D7" t="n">
-        <v>6.853332996368408</v>
+        <v>6.083333015441895</v>
       </c>
       <c r="E7" t="n">
-        <v>8.979999542236328</v>
+        <v>6.916666030883789</v>
       </c>
       <c r="F7" t="n">
-        <v>7.841217994689941</v>
+        <v>6.039543151855469</v>
       </c>
       <c r="G7" t="n">
-        <v>139603755</v>
+        <v>9672345</v>
       </c>
       <c r="H7" t="n">
         <v>2012</v>
       </c>
       <c r="I7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -830,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -844,31 +836,31 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>41214</v>
+        <v>41183</v>
       </c>
       <c r="B8" t="n">
-        <v>9.00666618347168</v>
+        <v>6.996665954589844</v>
       </c>
       <c r="C8" t="n">
-        <v>10.89333343505859</v>
+        <v>10.16333293914795</v>
       </c>
       <c r="D8" t="n">
-        <v>8.833333015441895</v>
+        <v>6.853332996368408</v>
       </c>
       <c r="E8" t="n">
-        <v>10.12333297729492</v>
+        <v>8.979999542236328</v>
       </c>
       <c r="F8" t="n">
-        <v>8.839561462402344</v>
+        <v>7.841217994689941</v>
       </c>
       <c r="G8" t="n">
-        <v>100371990</v>
+        <v>139603755</v>
       </c>
       <c r="H8" t="n">
         <v>2012</v>
       </c>
       <c r="I8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -883,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -897,31 +889,31 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>41244</v>
+        <v>41214</v>
       </c>
       <c r="B9" t="n">
-        <v>10.23999977111816</v>
+        <v>9.00666618347168</v>
       </c>
       <c r="C9" t="n">
-        <v>11.66666603088379</v>
+        <v>10.89333343505859</v>
       </c>
       <c r="D9" t="n">
-        <v>9.966666221618652</v>
+        <v>8.833333015441895</v>
       </c>
       <c r="E9" t="n">
-        <v>11.15333271026611</v>
+        <v>10.12333297729492</v>
       </c>
       <c r="F9" t="n">
-        <v>9.738945007324219</v>
+        <v>8.839561462402344</v>
       </c>
       <c r="G9" t="n">
-        <v>93746430</v>
+        <v>100371990</v>
       </c>
       <c r="H9" t="n">
         <v>2012</v>
       </c>
       <c r="I9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -936,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -950,31 +942,31 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>41275</v>
+        <v>41244</v>
       </c>
       <c r="B10" t="n">
-        <v>11.16666603088379</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="C10" t="n">
-        <v>12.96333312988281</v>
+        <v>11.66666603088379</v>
       </c>
       <c r="D10" t="n">
-        <v>10.73999977111816</v>
+        <v>9.966666221618652</v>
       </c>
       <c r="E10" t="n">
-        <v>10.96666622161865</v>
+        <v>11.15333271026611</v>
       </c>
       <c r="F10" t="n">
-        <v>9.575949668884277</v>
+        <v>9.738945007324219</v>
       </c>
       <c r="G10" t="n">
-        <v>65866110</v>
+        <v>93746430</v>
       </c>
       <c r="H10" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -989,10 +981,10 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1003,31 +995,31 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>41306</v>
+        <v>41275</v>
       </c>
       <c r="B11" t="n">
-        <v>10.98333263397217</v>
+        <v>11.16666603088379</v>
       </c>
       <c r="C11" t="n">
-        <v>11.11333274841309</v>
+        <v>12.96333312988281</v>
       </c>
       <c r="D11" t="n">
-        <v>8.483332633972168</v>
+        <v>10.73999977111816</v>
       </c>
       <c r="E11" t="n">
-        <v>8.663332939147949</v>
+        <v>10.96666622161865</v>
       </c>
       <c r="F11" t="n">
-        <v>7.564709186553955</v>
+        <v>9.575949668884277</v>
       </c>
       <c r="G11" t="n">
-        <v>26057655</v>
+        <v>65866110</v>
       </c>
       <c r="H11" t="n">
         <v>2013</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -1042,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1056,31 +1048,31 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>41334</v>
+        <v>41306</v>
       </c>
       <c r="B12" t="n">
-        <v>8.713333129882812</v>
+        <v>10.98333263397217</v>
       </c>
       <c r="C12" t="n">
-        <v>9.646665573120117</v>
+        <v>11.11333274841309</v>
       </c>
       <c r="D12" t="n">
-        <v>6.78000020980835</v>
+        <v>8.483332633972168</v>
       </c>
       <c r="E12" t="n">
-        <v>8.119999885559082</v>
+        <v>8.663332939147949</v>
       </c>
       <c r="F12" t="n">
-        <v>7.090278148651123</v>
+        <v>7.564709186553955</v>
       </c>
       <c r="G12" t="n">
-        <v>27272145</v>
+        <v>26057655</v>
       </c>
       <c r="H12" t="n">
         <v>2013</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -1095,10 +1087,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1109,31 +1101,31 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>41365</v>
+        <v>41334</v>
       </c>
       <c r="B13" t="n">
-        <v>8.173333168029785</v>
+        <v>8.713333129882812</v>
       </c>
       <c r="C13" t="n">
-        <v>9.766666412353516</v>
+        <v>9.646665573120117</v>
       </c>
       <c r="D13" t="n">
-        <v>8.159999847412109</v>
+        <v>6.78000020980835</v>
       </c>
       <c r="E13" t="n">
-        <v>9.496665954589844</v>
+        <v>8.119999885559082</v>
       </c>
       <c r="F13" t="n">
-        <v>8.292365074157715</v>
+        <v>7.090278148651123</v>
       </c>
       <c r="G13" t="n">
-        <v>25757535</v>
+        <v>27272145</v>
       </c>
       <c r="H13" t="n">
         <v>2013</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -1148,10 +1140,10 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1162,31 +1154,31 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>41395</v>
+        <v>41365</v>
       </c>
       <c r="B14" t="n">
+        <v>8.173333168029785</v>
+      </c>
+      <c r="C14" t="n">
+        <v>9.766666412353516</v>
+      </c>
+      <c r="D14" t="n">
+        <v>8.159999847412109</v>
+      </c>
+      <c r="E14" t="n">
         <v>9.496665954589844</v>
       </c>
-      <c r="C14" t="n">
-        <v>9.993332862854004</v>
-      </c>
-      <c r="D14" t="n">
-        <v>8.226666450500488</v>
-      </c>
-      <c r="E14" t="n">
-        <v>8.986665725708008</v>
-      </c>
       <c r="F14" t="n">
-        <v>7.847039222717285</v>
+        <v>8.292365074157715</v>
       </c>
       <c r="G14" t="n">
-        <v>13559790</v>
+        <v>25757535</v>
       </c>
       <c r="H14" t="n">
         <v>2013</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -1201,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1215,31 +1207,31 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>41426</v>
+        <v>41395</v>
       </c>
       <c r="B15" t="n">
-        <v>9</v>
+        <v>9.496665954589844</v>
       </c>
       <c r="C15" t="n">
-        <v>10.42666625976562</v>
+        <v>9.993332862854004</v>
       </c>
       <c r="D15" t="n">
-        <v>8.736665725708008</v>
+        <v>8.226666450500488</v>
       </c>
       <c r="E15" t="n">
-        <v>9.050000190734863</v>
+        <v>8.986665725708008</v>
       </c>
       <c r="F15" t="n">
-        <v>7.902342319488525</v>
+        <v>7.847039222717285</v>
       </c>
       <c r="G15" t="n">
-        <v>17469090</v>
+        <v>13559790</v>
       </c>
       <c r="H15" t="n">
         <v>2013</v>
       </c>
       <c r="I15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
@@ -1254,10 +1246,10 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1268,31 +1260,31 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>41456</v>
+        <v>41426</v>
       </c>
       <c r="B16" t="n">
-        <v>8.953332901000977</v>
+        <v>9</v>
       </c>
       <c r="C16" t="n">
-        <v>9.513333320617676</v>
+        <v>10.42666625976562</v>
       </c>
       <c r="D16" t="n">
-        <v>7</v>
+        <v>8.736665725708008</v>
       </c>
       <c r="E16" t="n">
-        <v>7.426665782928467</v>
+        <v>9.050000190734863</v>
       </c>
       <c r="F16" t="n">
-        <v>6.484868049621582</v>
+        <v>7.902342319488525</v>
       </c>
       <c r="G16" t="n">
-        <v>16882395</v>
+        <v>17469090</v>
       </c>
       <c r="H16" t="n">
         <v>2013</v>
       </c>
       <c r="I16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1307,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1321,31 +1313,31 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>41487</v>
+        <v>41456</v>
       </c>
       <c r="B17" t="n">
-        <v>7.599999904632568</v>
+        <v>8.953332901000977</v>
       </c>
       <c r="C17" t="n">
-        <v>8.460000038146973</v>
+        <v>9.513333320617676</v>
       </c>
       <c r="D17" t="n">
-        <v>6.383333206176758</v>
+        <v>7</v>
       </c>
       <c r="E17" t="n">
-        <v>7.599999904632568</v>
+        <v>7.426665782928467</v>
       </c>
       <c r="F17" t="n">
-        <v>6.636220932006836</v>
+        <v>6.484868049621582</v>
       </c>
       <c r="G17" t="n">
-        <v>10457715</v>
+        <v>16882395</v>
       </c>
       <c r="H17" t="n">
         <v>2013</v>
       </c>
       <c r="I17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1360,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -1374,31 +1366,31 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>41518</v>
+        <v>41487</v>
       </c>
       <c r="B18" t="n">
-        <v>7.650000095367432</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="C18" t="n">
-        <v>8.626666069030762</v>
+        <v>8.460000038146973</v>
       </c>
       <c r="D18" t="n">
-        <v>7.300000190734863</v>
+        <v>6.383333206176758</v>
       </c>
       <c r="E18" t="n">
-        <v>7.53000020980835</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="F18" t="n">
-        <v>6.575098037719727</v>
+        <v>6.636220932006836</v>
       </c>
       <c r="G18" t="n">
-        <v>6429405</v>
+        <v>10457715</v>
       </c>
       <c r="H18" t="n">
         <v>2013</v>
       </c>
       <c r="I18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -1413,10 +1405,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -1427,31 +1419,31 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>41548</v>
+        <v>41518</v>
       </c>
       <c r="B19" t="n">
-        <v>7.403333187103271</v>
+        <v>7.650000095367432</v>
       </c>
       <c r="C19" t="n">
-        <v>9.076665878295898</v>
+        <v>8.626666069030762</v>
       </c>
       <c r="D19" t="n">
-        <v>7.093332767486572</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="E19" t="n">
-        <v>8.796666145324707</v>
+        <v>7.53000020980835</v>
       </c>
       <c r="F19" t="n">
-        <v>7.939005851745605</v>
+        <v>6.575098037719727</v>
       </c>
       <c r="G19" t="n">
-        <v>27605670</v>
+        <v>6429405</v>
       </c>
       <c r="H19" t="n">
         <v>2013</v>
       </c>
       <c r="I19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
@@ -1466,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1475,36 +1467,36 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>41579</v>
+        <v>41548</v>
       </c>
       <c r="B20" t="n">
-        <v>8.733332633972168</v>
+        <v>7.403333187103271</v>
       </c>
       <c r="C20" t="n">
-        <v>9.396665573120117</v>
+        <v>9.076665878295898</v>
       </c>
       <c r="D20" t="n">
-        <v>8.206665992736816</v>
+        <v>7.093332767486572</v>
       </c>
       <c r="E20" t="n">
-        <v>9.013333320617676</v>
+        <v>8.796666145324707</v>
       </c>
       <c r="F20" t="n">
-        <v>8.134548187255859</v>
+        <v>7.939005851745605</v>
       </c>
       <c r="G20" t="n">
-        <v>12978900</v>
+        <v>27605670</v>
       </c>
       <c r="H20" t="n">
         <v>2013</v>
       </c>
       <c r="I20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
@@ -1519,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1528,36 +1520,36 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>41609</v>
+        <v>41579</v>
       </c>
       <c r="B21" t="n">
-        <v>9</v>
+        <v>8.733332633972168</v>
       </c>
       <c r="C21" t="n">
-        <v>10.62333297729492</v>
+        <v>9.396665573120117</v>
       </c>
       <c r="D21" t="n">
-        <v>8.933333396911621</v>
+        <v>8.206665992736816</v>
       </c>
       <c r="E21" t="n">
-        <v>10.11333274841309</v>
+        <v>9.013333320617676</v>
       </c>
       <c r="F21" t="n">
-        <v>9.127299308776855</v>
+        <v>8.134548187255859</v>
       </c>
       <c r="G21" t="n">
-        <v>19538850</v>
+        <v>12978900</v>
       </c>
       <c r="H21" t="n">
         <v>2013</v>
       </c>
       <c r="I21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -1572,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -1581,36 +1573,36 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>41640</v>
+        <v>41609</v>
       </c>
       <c r="B22" t="n">
-        <v>10.17000007629395</v>
+        <v>9</v>
       </c>
       <c r="C22" t="n">
-        <v>11.64666557312012</v>
+        <v>10.62333297729492</v>
       </c>
       <c r="D22" t="n">
-        <v>9.140000343322754</v>
+        <v>8.933333396911621</v>
       </c>
       <c r="E22" t="n">
-        <v>9.789999961853027</v>
+        <v>10.11333274841309</v>
       </c>
       <c r="F22" t="n">
-        <v>8.835492134094238</v>
+        <v>9.127299308776855</v>
       </c>
       <c r="G22" t="n">
-        <v>40512405</v>
+        <v>19538850</v>
       </c>
       <c r="H22" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
@@ -1625,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1634,36 +1626,36 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>41671</v>
+        <v>41640</v>
       </c>
       <c r="B23" t="n">
-        <v>9.84666633605957</v>
+        <v>10.17000007629395</v>
       </c>
       <c r="C23" t="n">
-        <v>10.07999992370605</v>
+        <v>11.64666557312012</v>
       </c>
       <c r="D23" t="n">
-        <v>9.026665687561035</v>
+        <v>9.140000343322754</v>
       </c>
       <c r="E23" t="n">
-        <v>9.176666259765625</v>
+        <v>9.789999961853027</v>
       </c>
       <c r="F23" t="n">
-        <v>8.281956672668457</v>
+        <v>8.835492134094238</v>
       </c>
       <c r="G23" t="n">
-        <v>7882230</v>
+        <v>40512405</v>
       </c>
       <c r="H23" t="n">
         <v>2014</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
@@ -1678,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1692,31 +1684,31 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>41699</v>
+        <v>41671</v>
       </c>
       <c r="B24" t="n">
-        <v>9.033332824707031</v>
+        <v>9.84666633605957</v>
       </c>
       <c r="C24" t="n">
-        <v>10.97666645050049</v>
+        <v>10.07999992370605</v>
       </c>
       <c r="D24" t="n">
-        <v>8.949999809265137</v>
+        <v>9.026665687561035</v>
       </c>
       <c r="E24" t="n">
-        <v>10.49333190917969</v>
+        <v>9.176666259765625</v>
       </c>
       <c r="F24" t="n">
-        <v>9.470250129699707</v>
+        <v>8.281956672668457</v>
       </c>
       <c r="G24" t="n">
-        <v>49444290</v>
+        <v>7882230</v>
       </c>
       <c r="H24" t="n">
         <v>2014</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
@@ -1731,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -1745,31 +1737,31 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>41730</v>
+        <v>41699</v>
       </c>
       <c r="B25" t="n">
-        <v>10.50333309173584</v>
+        <v>9.033332824707031</v>
       </c>
       <c r="C25" t="n">
-        <v>15.3866662979126</v>
+        <v>10.97666645050049</v>
       </c>
       <c r="D25" t="n">
-        <v>10.4399995803833</v>
+        <v>8.949999809265137</v>
       </c>
       <c r="E25" t="n">
-        <v>14.02333354949951</v>
+        <v>10.49333190917969</v>
       </c>
       <c r="F25" t="n">
-        <v>12.65608310699463</v>
+        <v>9.470250129699707</v>
       </c>
       <c r="G25" t="n">
-        <v>109400145</v>
+        <v>49444290</v>
       </c>
       <c r="H25" t="n">
         <v>2014</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
@@ -1784,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -1798,31 +1790,31 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>41760</v>
+        <v>41730</v>
       </c>
       <c r="B26" t="n">
+        <v>10.50333309173584</v>
+      </c>
+      <c r="C26" t="n">
+        <v>15.3866662979126</v>
+      </c>
+      <c r="D26" t="n">
+        <v>10.4399995803833</v>
+      </c>
+      <c r="E26" t="n">
         <v>14.02333354949951</v>
       </c>
-      <c r="C26" t="n">
-        <v>21.60000038146973</v>
-      </c>
-      <c r="D26" t="n">
-        <v>13.70666599273682</v>
-      </c>
-      <c r="E26" t="n">
-        <v>20.06999969482422</v>
-      </c>
       <c r="F26" t="n">
-        <v>18.11320877075195</v>
+        <v>12.65608310699463</v>
       </c>
       <c r="G26" t="n">
-        <v>130541535</v>
+        <v>109400145</v>
       </c>
       <c r="H26" t="n">
         <v>2014</v>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
@@ -1837,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -1851,31 +1843,31 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>41791</v>
+        <v>41760</v>
       </c>
       <c r="B27" t="n">
-        <v>20.33333206176758</v>
+        <v>14.02333354949951</v>
       </c>
       <c r="C27" t="n">
-        <v>23.10000038146973</v>
+        <v>21.60000038146973</v>
       </c>
       <c r="D27" t="n">
-        <v>19.24666595458984</v>
+        <v>13.70666599273682</v>
       </c>
       <c r="E27" t="n">
-        <v>23.07999992370605</v>
+        <v>20.06999969482422</v>
       </c>
       <c r="F27" t="n">
-        <v>20.82974052429199</v>
+        <v>18.11320877075195</v>
       </c>
       <c r="G27" t="n">
-        <v>112973055</v>
+        <v>130541535</v>
       </c>
       <c r="H27" t="n">
         <v>2014</v>
       </c>
       <c r="I27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J27" t="n">
         <v>1</v>
@@ -1890,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -1904,31 +1896,31 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>41821</v>
+        <v>41791</v>
       </c>
       <c r="B28" t="n">
-        <v>23.4466667175293</v>
+        <v>20.33333206176758</v>
       </c>
       <c r="C28" t="n">
-        <v>32.45333480834961</v>
+        <v>23.10000038146973</v>
       </c>
       <c r="D28" t="n">
-        <v>23.21666526794434</v>
+        <v>19.24666595458984</v>
       </c>
       <c r="E28" t="n">
-        <v>30.98333358764648</v>
+        <v>23.07999992370605</v>
       </c>
       <c r="F28" t="n">
-        <v>27.96250915527344</v>
+        <v>20.82974052429199</v>
       </c>
       <c r="G28" t="n">
-        <v>333547065</v>
+        <v>112973055</v>
       </c>
       <c r="H28" t="n">
         <v>2014</v>
       </c>
       <c r="I28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
@@ -1943,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -1957,31 +1949,31 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>41852</v>
+        <v>41821</v>
       </c>
       <c r="B29" t="n">
-        <v>30.41333389282227</v>
+        <v>23.4466667175293</v>
       </c>
       <c r="C29" t="n">
-        <v>32.31999969482422</v>
+        <v>32.45333480834961</v>
       </c>
       <c r="D29" t="n">
-        <v>26.39999961853027</v>
+        <v>23.21666526794434</v>
       </c>
       <c r="E29" t="n">
-        <v>28.15999984741211</v>
+        <v>30.98333358764648</v>
       </c>
       <c r="F29" t="n">
-        <v>25.4144458770752</v>
+        <v>27.96250915527344</v>
       </c>
       <c r="G29" t="n">
-        <v>119683725</v>
+        <v>333547065</v>
       </c>
       <c r="H29" t="n">
         <v>2014</v>
       </c>
       <c r="I29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
@@ -1996,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -2010,31 +2002,31 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>41883</v>
+        <v>41852</v>
       </c>
       <c r="B30" t="n">
+        <v>30.41333389282227</v>
+      </c>
+      <c r="C30" t="n">
+        <v>32.31999969482422</v>
+      </c>
+      <c r="D30" t="n">
+        <v>26.39999961853027</v>
+      </c>
+      <c r="E30" t="n">
         <v>28.15999984741211</v>
       </c>
-      <c r="C30" t="n">
-        <v>51.22666549682617</v>
-      </c>
-      <c r="D30" t="n">
-        <v>28.15999984741211</v>
-      </c>
-      <c r="E30" t="n">
-        <v>45.89333343505859</v>
-      </c>
       <c r="F30" t="n">
-        <v>41.4188232421875</v>
+        <v>25.4144458770752</v>
       </c>
       <c r="G30" t="n">
-        <v>587128890</v>
+        <v>119683725</v>
       </c>
       <c r="H30" t="n">
         <v>2014</v>
       </c>
       <c r="I30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J30" t="n">
         <v>1</v>
@@ -2049,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -2063,31 +2055,31 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>41913</v>
+        <v>41883</v>
       </c>
       <c r="B31" t="n">
-        <v>46.12666702270508</v>
+        <v>28.15999984741211</v>
       </c>
       <c r="C31" t="n">
-        <v>56.56333160400391</v>
+        <v>51.22666549682617</v>
       </c>
       <c r="D31" t="n">
-        <v>42.11666488647461</v>
+        <v>28.15999984741211</v>
       </c>
       <c r="E31" t="n">
-        <v>56.22000122070312</v>
+        <v>45.89333343505859</v>
       </c>
       <c r="F31" t="n">
-        <v>51.28847503662109</v>
+        <v>41.4188232421875</v>
       </c>
       <c r="G31" t="n">
-        <v>301990695</v>
+        <v>587128890</v>
       </c>
       <c r="H31" t="n">
         <v>2014</v>
       </c>
       <c r="I31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
@@ -2102,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -2116,31 +2108,31 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>41944</v>
+        <v>41913</v>
       </c>
       <c r="B32" t="n">
-        <v>56.64666748046875</v>
+        <v>46.12666702270508</v>
       </c>
       <c r="C32" t="n">
-        <v>60.55666732788086</v>
+        <v>56.56333160400391</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97333145141602</v>
+        <v>42.11666488647461</v>
       </c>
       <c r="E32" t="n">
-        <v>52.65666580200195</v>
+        <v>56.22000122070312</v>
       </c>
       <c r="F32" t="n">
-        <v>48.03771591186523</v>
+        <v>51.28847503662109</v>
       </c>
       <c r="G32" t="n">
-        <v>204073320</v>
+        <v>301990695</v>
       </c>
       <c r="H32" t="n">
         <v>2014</v>
       </c>
       <c r="I32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
@@ -2155,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -2169,31 +2161,31 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>41974</v>
+        <v>41944</v>
       </c>
       <c r="B33" t="n">
-        <v>52.66666412353516</v>
+        <v>56.64666748046875</v>
       </c>
       <c r="C33" t="n">
-        <v>61.52000045776367</v>
+        <v>60.55666732788086</v>
       </c>
       <c r="D33" t="n">
-        <v>49</v>
+        <v>46.97333145141602</v>
       </c>
       <c r="E33" t="n">
-        <v>54.52333450317383</v>
+        <v>52.65666580200195</v>
       </c>
       <c r="F33" t="n">
-        <v>49.74064254760742</v>
+        <v>48.03771591186523</v>
       </c>
       <c r="G33" t="n">
-        <v>246049455</v>
+        <v>204073320</v>
       </c>
       <c r="H33" t="n">
         <v>2014</v>
       </c>
       <c r="I33" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
@@ -2208,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -2222,31 +2214,31 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>42005</v>
+        <v>41974</v>
       </c>
       <c r="B34" t="n">
-        <v>54.67333221435547</v>
+        <v>52.66666412353516</v>
       </c>
       <c r="C34" t="n">
-        <v>59.06000137329102</v>
+        <v>61.52000045776367</v>
       </c>
       <c r="D34" t="n">
-        <v>51.86999893188477</v>
+        <v>49</v>
       </c>
       <c r="E34" t="n">
-        <v>58.68999862670898</v>
+        <v>54.52333450317383</v>
       </c>
       <c r="F34" t="n">
-        <v>53.54181671142578</v>
+        <v>49.74064254760742</v>
       </c>
       <c r="G34" t="n">
-        <v>155453520</v>
+        <v>246049455</v>
       </c>
       <c r="H34" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J34" t="n">
         <v>1</v>
@@ -2261,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -2275,31 +2267,31 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>42036</v>
+        <v>42005</v>
       </c>
       <c r="B35" t="n">
-        <v>58.15666580200195</v>
+        <v>54.67333221435547</v>
       </c>
       <c r="C35" t="n">
-        <v>60.59999847412109</v>
+        <v>59.06000137329102</v>
       </c>
       <c r="D35" t="n">
-        <v>45.54000091552734</v>
+        <v>51.86999893188477</v>
       </c>
       <c r="E35" t="n">
-        <v>56.89666748046875</v>
+        <v>58.68999862670898</v>
       </c>
       <c r="F35" t="n">
-        <v>51.90578842163086</v>
+        <v>53.54181671142578</v>
       </c>
       <c r="G35" t="n">
-        <v>198538650</v>
+        <v>155453520</v>
       </c>
       <c r="H35" t="n">
         <v>2015</v>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
         <v>1</v>
@@ -2314,10 +2306,10 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -2328,31 +2320,31 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>42064</v>
+        <v>42036</v>
       </c>
       <c r="B36" t="n">
-        <v>58.11333465576172</v>
+        <v>58.15666580200195</v>
       </c>
       <c r="C36" t="n">
-        <v>72.49333190917969</v>
+        <v>60.59999847412109</v>
       </c>
       <c r="D36" t="n">
-        <v>56.66666412353516</v>
+        <v>45.54000091552734</v>
       </c>
       <c r="E36" t="n">
-        <v>63.79999923706055</v>
+        <v>56.89666748046875</v>
       </c>
       <c r="F36" t="n">
-        <v>58.20357131958008</v>
+        <v>51.90578842163086</v>
       </c>
       <c r="G36" t="n">
-        <v>271562445</v>
+        <v>198538650</v>
       </c>
       <c r="H36" t="n">
         <v>2015</v>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
         <v>1</v>
@@ -2367,10 +2359,10 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -2381,31 +2373,31 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>42095</v>
+        <v>42064</v>
       </c>
       <c r="B37" t="n">
-        <v>63.40666580200195</v>
+        <v>58.11333465576172</v>
       </c>
       <c r="C37" t="n">
-        <v>67.92666625976562</v>
+        <v>72.49333190917969</v>
       </c>
       <c r="D37" t="n">
-        <v>46.66666412353516</v>
+        <v>56.66666412353516</v>
       </c>
       <c r="E37" t="n">
-        <v>52.24666595458984</v>
+        <v>63.79999923706055</v>
       </c>
       <c r="F37" t="n">
-        <v>47.66367340087891</v>
+        <v>58.20357131958008</v>
       </c>
       <c r="G37" t="n">
-        <v>127109475</v>
+        <v>271562445</v>
       </c>
       <c r="H37" t="n">
         <v>2015</v>
       </c>
       <c r="I37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J37" t="n">
         <v>1</v>
@@ -2420,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -2434,31 +2426,31 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>42125</v>
+        <v>42095</v>
       </c>
       <c r="B38" t="n">
+        <v>63.40666580200195</v>
+      </c>
+      <c r="C38" t="n">
+        <v>67.92666625976562</v>
+      </c>
+      <c r="D38" t="n">
+        <v>46.66666412353516</v>
+      </c>
+      <c r="E38" t="n">
         <v>52.24666595458984</v>
       </c>
-      <c r="C38" t="n">
-        <v>55.66333389282227</v>
-      </c>
-      <c r="D38" t="n">
-        <v>47.66666412353516</v>
-      </c>
-      <c r="E38" t="n">
-        <v>51.41999816894531</v>
-      </c>
       <c r="F38" t="n">
-        <v>46.90952301025391</v>
+        <v>47.66367340087891</v>
       </c>
       <c r="G38" t="n">
-        <v>120282105</v>
+        <v>127109475</v>
       </c>
       <c r="H38" t="n">
         <v>2015</v>
       </c>
       <c r="I38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J38" t="n">
         <v>1</v>
@@ -2473,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -2487,31 +2479,31 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>42156</v>
+        <v>42125</v>
       </c>
       <c r="B39" t="n">
-        <v>51.40000152587891</v>
+        <v>52.24666595458984</v>
       </c>
       <c r="C39" t="n">
-        <v>62.29333114624023</v>
+        <v>55.66333389282227</v>
       </c>
       <c r="D39" t="n">
-        <v>47.03333282470703</v>
+        <v>47.66666412353516</v>
       </c>
       <c r="E39" t="n">
-        <v>60.32333374023438</v>
+        <v>51.41999816894531</v>
       </c>
       <c r="F39" t="n">
-        <v>55.0318717956543</v>
+        <v>46.90952301025391</v>
       </c>
       <c r="G39" t="n">
-        <v>231696840</v>
+        <v>120282105</v>
       </c>
       <c r="H39" t="n">
         <v>2015</v>
       </c>
       <c r="I39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J39" t="n">
         <v>1</v>
@@ -2526,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -2535,36 +2527,36 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>42186</v>
+        <v>42156</v>
       </c>
       <c r="B40" t="n">
-        <v>60.24666595458984</v>
+        <v>51.40000152587891</v>
       </c>
       <c r="C40" t="n">
-        <v>72.66666412353516</v>
+        <v>62.29333114624023</v>
       </c>
       <c r="D40" t="n">
-        <v>60.07333374023438</v>
+        <v>47.03333282470703</v>
       </c>
       <c r="E40" t="n">
-        <v>68.54666900634766</v>
+        <v>60.32333374023438</v>
       </c>
       <c r="F40" t="n">
-        <v>62.53387451171875</v>
+        <v>55.0318717956543</v>
       </c>
       <c r="G40" t="n">
-        <v>264799200</v>
+        <v>231696840</v>
       </c>
       <c r="H40" t="n">
         <v>2015</v>
       </c>
       <c r="I40" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J40" t="n">
         <v>1</v>
@@ -2579,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -2588,36 +2580,36 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>42217</v>
+        <v>42186</v>
       </c>
       <c r="B41" t="n">
-        <v>68.80000305175781</v>
+        <v>60.24666595458984</v>
       </c>
       <c r="C41" t="n">
-        <v>80.95999908447266</v>
+        <v>72.66666412353516</v>
       </c>
       <c r="D41" t="n">
-        <v>54.08333206176758</v>
+        <v>60.07333374023438</v>
       </c>
       <c r="E41" t="n">
-        <v>65.15333557128906</v>
+        <v>68.54666900634766</v>
       </c>
       <c r="F41" t="n">
-        <v>59.43819046020508</v>
+        <v>62.53387451171875</v>
       </c>
       <c r="G41" t="n">
-        <v>201759150</v>
+        <v>264799200</v>
       </c>
       <c r="H41" t="n">
         <v>2015</v>
       </c>
       <c r="I41" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J41" t="n">
         <v>1</v>
@@ -2632,45 +2624,45 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>42248</v>
+        <v>42217</v>
       </c>
       <c r="B42" t="n">
-        <v>64.66000366210938</v>
+        <v>68.80000305175781</v>
       </c>
       <c r="C42" t="n">
-        <v>67.61333465576172</v>
+        <v>80.95999908447266</v>
       </c>
       <c r="D42" t="n">
-        <v>60.43333435058594</v>
+        <v>54.08333206176758</v>
       </c>
       <c r="E42" t="n">
-        <v>63.96666717529297</v>
+        <v>65.15333557128906</v>
       </c>
       <c r="F42" t="n">
-        <v>58.35561370849609</v>
+        <v>59.43819046020508</v>
       </c>
       <c r="G42" t="n">
-        <v>95945295</v>
+        <v>201759150</v>
       </c>
       <c r="H42" t="n">
         <v>2015</v>
       </c>
       <c r="I42" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J42" t="n">
         <v>1</v>
@@ -2685,10 +2677,10 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -2699,31 +2691,31 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>42278</v>
+        <v>42248</v>
       </c>
       <c r="B43" t="n">
-        <v>64.46666717529297</v>
+        <v>64.66000366210938</v>
       </c>
       <c r="C43" t="n">
-        <v>68.93333435058594</v>
+        <v>67.61333465576172</v>
       </c>
       <c r="D43" t="n">
-        <v>61.53333282470703</v>
+        <v>60.43333435058594</v>
       </c>
       <c r="E43" t="n">
-        <v>62.14666748046875</v>
+        <v>63.96666717529297</v>
       </c>
       <c r="F43" t="n">
-        <v>57.0222282409668</v>
+        <v>58.35561370849609</v>
       </c>
       <c r="G43" t="n">
-        <v>66353550</v>
+        <v>95945295</v>
       </c>
       <c r="H43" t="n">
         <v>2015</v>
       </c>
       <c r="I43" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J43" t="n">
         <v>1</v>
@@ -2738,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -2752,31 +2744,31 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="B44" t="n">
-        <v>62.33333206176758</v>
+        <v>64.46666717529297</v>
       </c>
       <c r="C44" t="n">
-        <v>68.19666290283203</v>
+        <v>68.93333435058594</v>
       </c>
       <c r="D44" t="n">
-        <v>58.93333435058594</v>
+        <v>61.53333282470703</v>
       </c>
       <c r="E44" t="n">
-        <v>67.15666961669922</v>
+        <v>62.14666748046875</v>
       </c>
       <c r="F44" t="n">
-        <v>61.61912155151367</v>
+        <v>57.0222282409668</v>
       </c>
       <c r="G44" t="n">
-        <v>68563830</v>
+        <v>66353550</v>
       </c>
       <c r="H44" t="n">
         <v>2015</v>
       </c>
       <c r="I44" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J44" t="n">
         <v>1</v>
@@ -2791,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -2805,31 +2797,31 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>42339</v>
+        <v>42309</v>
       </c>
       <c r="B45" t="n">
-        <v>67.33333587646484</v>
+        <v>62.33333206176758</v>
       </c>
       <c r="C45" t="n">
-        <v>69.08999633789062</v>
+        <v>68.19666290283203</v>
       </c>
       <c r="D45" t="n">
-        <v>60.79999923706055</v>
+        <v>58.93333435058594</v>
       </c>
       <c r="E45" t="n">
-        <v>65.97666931152344</v>
+        <v>67.15666961669922</v>
       </c>
       <c r="F45" t="n">
-        <v>60.53642272949219</v>
+        <v>61.61912155151367</v>
       </c>
       <c r="G45" t="n">
-        <v>58371375</v>
+        <v>68563830</v>
       </c>
       <c r="H45" t="n">
         <v>2015</v>
       </c>
       <c r="I45" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J45" t="n">
         <v>1</v>
@@ -2844,45 +2836,45 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>42370</v>
+        <v>42339</v>
       </c>
       <c r="B46" t="n">
-        <v>66.33333587646484</v>
+        <v>67.33333587646484</v>
       </c>
       <c r="C46" t="n">
-        <v>68.58666229248047</v>
+        <v>69.08999633789062</v>
       </c>
       <c r="D46" t="n">
-        <v>57.73333358764648</v>
+        <v>60.79999923706055</v>
       </c>
       <c r="E46" t="n">
-        <v>64.19333648681641</v>
+        <v>65.97666931152344</v>
       </c>
       <c r="F46" t="n">
-        <v>58.90013885498047</v>
+        <v>60.53642272949219</v>
       </c>
       <c r="G46" t="n">
-        <v>51865710</v>
+        <v>58371375</v>
       </c>
       <c r="H46" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J46" t="n">
         <v>1</v>
@@ -2897,45 +2889,45 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>42401</v>
+        <v>42370</v>
       </c>
       <c r="B47" t="n">
-        <v>64.70999908447266</v>
+        <v>66.33333587646484</v>
       </c>
       <c r="C47" t="n">
-        <v>65.51999664306641</v>
+        <v>68.58666229248047</v>
       </c>
       <c r="D47" t="n">
-        <v>54.15000152587891</v>
+        <v>57.73333358764648</v>
       </c>
       <c r="E47" t="n">
-        <v>57.59333419799805</v>
+        <v>64.19333648681641</v>
       </c>
       <c r="F47" t="n">
-        <v>52.84435653686523</v>
+        <v>58.90013885498047</v>
       </c>
       <c r="G47" t="n">
-        <v>49582965</v>
+        <v>51865710</v>
       </c>
       <c r="H47" t="n">
         <v>2016</v>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
         <v>1</v>
@@ -2950,10 +2942,10 @@
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="O47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P47" t="n">
         <v>0</v>
@@ -2964,31 +2956,31 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>42430</v>
+        <v>42401</v>
       </c>
       <c r="B48" t="n">
-        <v>57.97999954223633</v>
+        <v>64.70999908447266</v>
       </c>
       <c r="C48" t="n">
-        <v>64.64333343505859</v>
+        <v>65.51999664306641</v>
       </c>
       <c r="D48" t="n">
-        <v>57.97999954223633</v>
+        <v>54.15000152587891</v>
       </c>
       <c r="E48" t="n">
-        <v>62.86333465576172</v>
+        <v>57.59333419799805</v>
       </c>
       <c r="F48" t="n">
-        <v>57.6797981262207</v>
+        <v>52.84435653686523</v>
       </c>
       <c r="G48" t="n">
-        <v>59436330</v>
+        <v>49582965</v>
       </c>
       <c r="H48" t="n">
         <v>2016</v>
       </c>
       <c r="I48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J48" t="n">
         <v>1</v>
@@ -3003,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P48" t="n">
         <v>0</v>
@@ -3017,31 +3009,31 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>42461</v>
+        <v>42430</v>
       </c>
       <c r="B49" t="n">
-        <v>63.13000106811523</v>
+        <v>57.97999954223633</v>
       </c>
       <c r="C49" t="n">
-        <v>68.51666259765625</v>
+        <v>64.64333343505859</v>
       </c>
       <c r="D49" t="n">
-        <v>62.66666412353516</v>
+        <v>57.97999954223633</v>
       </c>
       <c r="E49" t="n">
-        <v>66.62000274658203</v>
+        <v>62.86333465576172</v>
       </c>
       <c r="F49" t="n">
-        <v>61.12670135498047</v>
+        <v>57.6797981262207</v>
       </c>
       <c r="G49" t="n">
-        <v>42968460</v>
+        <v>59436330</v>
       </c>
       <c r="H49" t="n">
         <v>2016</v>
       </c>
       <c r="I49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J49" t="n">
         <v>1</v>
@@ -3056,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -3065,36 +3057,36 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>42491</v>
+        <v>42461</v>
       </c>
       <c r="B50" t="n">
-        <v>66.46666717529297</v>
+        <v>63.13000106811523</v>
       </c>
       <c r="C50" t="n">
-        <v>68.46333312988281</v>
+        <v>68.51666259765625</v>
       </c>
       <c r="D50" t="n">
-        <v>62.0099983215332</v>
+        <v>62.66666412353516</v>
       </c>
       <c r="E50" t="n">
-        <v>63.1966667175293</v>
+        <v>66.62000274658203</v>
       </c>
       <c r="F50" t="n">
-        <v>57.98565673828125</v>
+        <v>61.12670135498047</v>
       </c>
       <c r="G50" t="n">
-        <v>45861150</v>
+        <v>42968460</v>
       </c>
       <c r="H50" t="n">
         <v>2016</v>
       </c>
       <c r="I50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J50" t="n">
         <v>1</v>
@@ -3109,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -3118,36 +3110,36 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>42522</v>
+        <v>42491</v>
       </c>
       <c r="B51" t="n">
-        <v>63.46666717529297</v>
+        <v>66.46666717529297</v>
       </c>
       <c r="C51" t="n">
-        <v>66.66666412353516</v>
+        <v>68.46333312988281</v>
       </c>
       <c r="D51" t="n">
-        <v>58.66666412353516</v>
+        <v>62.0099983215332</v>
       </c>
       <c r="E51" t="n">
-        <v>63.53333282470703</v>
+        <v>63.1966667175293</v>
       </c>
       <c r="F51" t="n">
-        <v>58.29455184936523</v>
+        <v>57.98565673828125</v>
       </c>
       <c r="G51" t="n">
-        <v>32703015</v>
+        <v>45861150</v>
       </c>
       <c r="H51" t="n">
         <v>2016</v>
       </c>
       <c r="I51" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J51" t="n">
         <v>1</v>
@@ -3162,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -3171,36 +3163,36 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>42552</v>
+        <v>42522</v>
       </c>
       <c r="B52" t="n">
-        <v>63.66666412353516</v>
+        <v>63.46666717529297</v>
       </c>
       <c r="C52" t="n">
-        <v>88.93333435058594</v>
+        <v>66.66666412353516</v>
       </c>
       <c r="D52" t="n">
-        <v>63.65000152587891</v>
+        <v>58.66666412353516</v>
       </c>
       <c r="E52" t="n">
-        <v>82.40000152587891</v>
+        <v>63.53333282470703</v>
       </c>
       <c r="F52" t="n">
-        <v>75.60552978515625</v>
+        <v>58.29455184936523</v>
       </c>
       <c r="G52" t="n">
-        <v>166928220</v>
+        <v>32703015</v>
       </c>
       <c r="H52" t="n">
         <v>2016</v>
       </c>
       <c r="I52" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J52" t="n">
         <v>1</v>
@@ -3215,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -3224,36 +3216,36 @@
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>42583</v>
+        <v>42552</v>
       </c>
       <c r="B53" t="n">
-        <v>82.96666717529297</v>
+        <v>63.66666412353516</v>
       </c>
       <c r="C53" t="n">
-        <v>83.25</v>
+        <v>88.93333435058594</v>
       </c>
       <c r="D53" t="n">
-        <v>76.68333435058594</v>
+        <v>63.65000152587891</v>
       </c>
       <c r="E53" t="n">
-        <v>80.41666412353516</v>
+        <v>82.40000152587891</v>
       </c>
       <c r="F53" t="n">
-        <v>73.78574371337891</v>
+        <v>75.60552978515625</v>
       </c>
       <c r="G53" t="n">
-        <v>34785270</v>
+        <v>166928220</v>
       </c>
       <c r="H53" t="n">
         <v>2016</v>
       </c>
       <c r="I53" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J53" t="n">
         <v>1</v>
@@ -3268,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -3282,31 +3274,31 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>42614</v>
+        <v>42583</v>
       </c>
       <c r="B54" t="n">
-        <v>80.48332977294922</v>
+        <v>82.96666717529297</v>
       </c>
       <c r="C54" t="n">
-        <v>87.46666717529297</v>
+        <v>83.25</v>
       </c>
       <c r="D54" t="n">
-        <v>80.03333282470703</v>
+        <v>76.68333435058594</v>
       </c>
       <c r="E54" t="n">
-        <v>83.91666412353516</v>
+        <v>80.41666412353516</v>
       </c>
       <c r="F54" t="n">
-        <v>76.99713134765625</v>
+        <v>73.78574371337891</v>
       </c>
       <c r="G54" t="n">
-        <v>45260295</v>
+        <v>34785270</v>
       </c>
       <c r="H54" t="n">
         <v>2016</v>
       </c>
       <c r="I54" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J54" t="n">
         <v>1</v>
@@ -3321,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
@@ -3335,31 +3327,31 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>42644</v>
+        <v>42614</v>
       </c>
       <c r="B55" t="n">
-        <v>85</v>
+        <v>80.48332977294922</v>
       </c>
       <c r="C55" t="n">
-        <v>99.80000305175781</v>
+        <v>87.46666717529297</v>
       </c>
       <c r="D55" t="n">
-        <v>78.75</v>
+        <v>80.03333282470703</v>
       </c>
       <c r="E55" t="n">
-        <v>79.96666717529297</v>
+        <v>83.91666412353516</v>
       </c>
       <c r="F55" t="n">
-        <v>73.95993804931641</v>
+        <v>76.99713134765625</v>
       </c>
       <c r="G55" t="n">
-        <v>112144014</v>
+        <v>45260295</v>
       </c>
       <c r="H55" t="n">
         <v>2016</v>
       </c>
       <c r="I55" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J55" t="n">
         <v>1</v>
@@ -3374,10 +3366,10 @@
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P55" t="n">
         <v>0</v>
@@ -3388,31 +3380,31 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>42675</v>
+        <v>42644</v>
       </c>
       <c r="B56" t="n">
-        <v>81.59999847412109</v>
+        <v>85</v>
       </c>
       <c r="C56" t="n">
-        <v>81.66666412353516</v>
+        <v>99.80000305175781</v>
       </c>
       <c r="D56" t="n">
-        <v>66.34999847412109</v>
+        <v>78.75</v>
       </c>
       <c r="E56" t="n">
-        <v>76.03333282470703</v>
+        <v>79.96666717529297</v>
       </c>
       <c r="F56" t="n">
-        <v>70.32207489013672</v>
+        <v>73.95993804931641</v>
       </c>
       <c r="G56" t="n">
-        <v>59554479</v>
+        <v>112144014</v>
       </c>
       <c r="H56" t="n">
         <v>2016</v>
       </c>
       <c r="I56" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J56" t="n">
         <v>1</v>
@@ -3427,10 +3419,10 @@
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P56" t="n">
         <v>0</v>
@@ -3441,31 +3433,31 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>42705</v>
+        <v>42675</v>
       </c>
       <c r="B57" t="n">
-        <v>76.36666870117188</v>
+        <v>81.59999847412109</v>
       </c>
       <c r="C57" t="n">
-        <v>81.43333435058594</v>
+        <v>81.66666412353516</v>
       </c>
       <c r="D57" t="n">
-        <v>71.53333282470703</v>
+        <v>66.34999847412109</v>
       </c>
       <c r="E57" t="n">
-        <v>79.65000152587891</v>
+        <v>76.03333282470703</v>
       </c>
       <c r="F57" t="n">
-        <v>73.66706848144531</v>
+        <v>70.32207489013672</v>
       </c>
       <c r="G57" t="n">
-        <v>59049099</v>
+        <v>59554479</v>
       </c>
       <c r="H57" t="n">
         <v>2016</v>
       </c>
       <c r="I57" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J57" t="n">
         <v>1</v>
@@ -3480,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P57" t="n">
         <v>0</v>
@@ -3494,31 +3486,31 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>42736</v>
+        <v>42705</v>
       </c>
       <c r="B58" t="n">
-        <v>80.34999847412109</v>
+        <v>76.36666870117188</v>
       </c>
       <c r="C58" t="n">
-        <v>95.33333587646484</v>
+        <v>81.43333435058594</v>
       </c>
       <c r="D58" t="n">
-        <v>80.13333129882812</v>
+        <v>71.53333282470703</v>
       </c>
       <c r="E58" t="n">
-        <v>90.25</v>
+        <v>79.65000152587891</v>
       </c>
       <c r="F58" t="n">
-        <v>83.47083282470703</v>
+        <v>73.66706848144531</v>
       </c>
       <c r="G58" t="n">
-        <v>107841123</v>
+        <v>59049099</v>
       </c>
       <c r="H58" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J58" t="n">
         <v>1</v>
@@ -3533,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -3547,31 +3539,31 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>42767</v>
+        <v>42736</v>
       </c>
       <c r="B59" t="n">
-        <v>90.90000152587891</v>
+        <v>80.34999847412109</v>
       </c>
       <c r="C59" t="n">
-        <v>99</v>
+        <v>95.33333587646484</v>
       </c>
       <c r="D59" t="n">
-        <v>77.84999847412109</v>
+        <v>80.13333129882812</v>
       </c>
       <c r="E59" t="n">
-        <v>84.42500305175781</v>
+        <v>90.25</v>
       </c>
       <c r="F59" t="n">
-        <v>78.08338928222656</v>
+        <v>83.47083282470703</v>
       </c>
       <c r="G59" t="n">
-        <v>77992655</v>
+        <v>107841123</v>
       </c>
       <c r="H59" t="n">
         <v>2017</v>
       </c>
       <c r="I59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
         <v>1</v>
@@ -3586,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -3595,36 +3587,36 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>42795</v>
+        <v>42767</v>
       </c>
       <c r="B60" t="n">
-        <v>84.875</v>
+        <v>90.90000152587891</v>
       </c>
       <c r="C60" t="n">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D60" t="n">
-        <v>80.27500152587891</v>
+        <v>77.84999847412109</v>
       </c>
       <c r="E60" t="n">
-        <v>86.02500152587891</v>
+        <v>84.42500305175781</v>
       </c>
       <c r="F60" t="n">
-        <v>79.56320953369141</v>
+        <v>78.08338928222656</v>
       </c>
       <c r="G60" t="n">
-        <v>64522360</v>
+        <v>77992655</v>
       </c>
       <c r="H60" t="n">
         <v>2017</v>
       </c>
       <c r="I60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
         <v>1</v>
@@ -3639,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
@@ -3648,36 +3640,36 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>42826</v>
+        <v>42795</v>
       </c>
       <c r="B61" t="n">
-        <v>86.25</v>
+        <v>84.875</v>
       </c>
       <c r="C61" t="n">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D61" t="n">
-        <v>85.5</v>
+        <v>80.27500152587891</v>
       </c>
       <c r="E61" t="n">
-        <v>99.875</v>
+        <v>86.02500152587891</v>
       </c>
       <c r="F61" t="n">
-        <v>92.65395355224609</v>
+        <v>79.56320953369141</v>
       </c>
       <c r="G61" t="n">
-        <v>61687004</v>
+        <v>64522360</v>
       </c>
       <c r="H61" t="n">
         <v>2017</v>
       </c>
       <c r="I61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J61" t="n">
         <v>1</v>
@@ -3692,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -3701,36 +3693,36 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>42856</v>
+        <v>42826</v>
       </c>
       <c r="B62" t="n">
+        <v>86.25</v>
+      </c>
+      <c r="C62" t="n">
+        <v>103</v>
+      </c>
+      <c r="D62" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="E62" t="n">
         <v>99.875</v>
       </c>
-      <c r="C62" t="n">
-        <v>101.9250030517578</v>
-      </c>
-      <c r="D62" t="n">
-        <v>89.09999847412109</v>
-      </c>
-      <c r="E62" t="n">
-        <v>97.47499847412109</v>
-      </c>
       <c r="F62" t="n">
-        <v>90.42747497558594</v>
+        <v>92.65395355224609</v>
       </c>
       <c r="G62" t="n">
-        <v>49742578</v>
+        <v>61687004</v>
       </c>
       <c r="H62" t="n">
         <v>2017</v>
       </c>
       <c r="I62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J62" t="n">
         <v>1</v>
@@ -3745,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
@@ -3759,31 +3751,31 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>42887</v>
+        <v>42856</v>
       </c>
       <c r="B63" t="n">
-        <v>96.5</v>
+        <v>99.875</v>
       </c>
       <c r="C63" t="n">
-        <v>106.75</v>
+        <v>101.9250030517578</v>
       </c>
       <c r="D63" t="n">
-        <v>95.25</v>
+        <v>89.09999847412109</v>
       </c>
       <c r="E63" t="n">
-        <v>101.25</v>
+        <v>97.47499847412109</v>
       </c>
       <c r="F63" t="n">
-        <v>93.92952728271484</v>
+        <v>90.42747497558594</v>
       </c>
       <c r="G63" t="n">
-        <v>70094932</v>
+        <v>49742578</v>
       </c>
       <c r="H63" t="n">
         <v>2017</v>
       </c>
       <c r="I63" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J63" t="n">
         <v>1</v>
@@ -3798,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O63" t="n">
         <v>0</v>
@@ -3812,31 +3804,31 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>42917</v>
+        <v>42887</v>
       </c>
       <c r="B64" t="n">
-        <v>102.0999984741211</v>
+        <v>96.5</v>
       </c>
       <c r="C64" t="n">
-        <v>109.3000030517578</v>
+        <v>106.75</v>
       </c>
       <c r="D64" t="n">
-        <v>101.6500015258789</v>
+        <v>95.25</v>
       </c>
       <c r="E64" t="n">
-        <v>104.75</v>
+        <v>101.25</v>
       </c>
       <c r="F64" t="n">
-        <v>97.17647552490234</v>
+        <v>93.92952728271484</v>
       </c>
       <c r="G64" t="n">
-        <v>44608532</v>
+        <v>70094932</v>
       </c>
       <c r="H64" t="n">
         <v>2017</v>
       </c>
       <c r="I64" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J64" t="n">
         <v>1</v>
@@ -3851,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
@@ -3865,31 +3857,31 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>42948</v>
+        <v>42917</v>
       </c>
       <c r="B65" t="n">
-        <v>104.875</v>
+        <v>102.0999984741211</v>
       </c>
       <c r="C65" t="n">
-        <v>109.8000030517578</v>
+        <v>109.3000030517578</v>
       </c>
       <c r="D65" t="n">
-        <v>94.05000305175781</v>
+        <v>101.6500015258789</v>
       </c>
       <c r="E65" t="n">
-        <v>102.2750015258789</v>
+        <v>104.75</v>
       </c>
       <c r="F65" t="n">
-        <v>94.88042449951172</v>
+        <v>97.17647552490234</v>
       </c>
       <c r="G65" t="n">
-        <v>43850954</v>
+        <v>44608532</v>
       </c>
       <c r="H65" t="n">
         <v>2017</v>
       </c>
       <c r="I65" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J65" t="n">
         <v>1</v>
@@ -3904,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O65" t="n">
         <v>0</v>
@@ -3918,31 +3910,31 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>42979</v>
+        <v>42948</v>
       </c>
       <c r="B66" t="n">
-        <v>102.6999969482422</v>
+        <v>104.875</v>
       </c>
       <c r="C66" t="n">
-        <v>114.25</v>
+        <v>109.8000030517578</v>
       </c>
       <c r="D66" t="n">
-        <v>102.5999984741211</v>
+        <v>94.05000305175781</v>
       </c>
       <c r="E66" t="n">
-        <v>106.3000030517578</v>
+        <v>102.2750015258789</v>
       </c>
       <c r="F66" t="n">
-        <v>98.61441802978516</v>
+        <v>94.88042449951172</v>
       </c>
       <c r="G66" t="n">
-        <v>53943510</v>
+        <v>43850954</v>
       </c>
       <c r="H66" t="n">
         <v>2017</v>
       </c>
       <c r="I66" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J66" t="n">
         <v>1</v>
@@ -3957,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O66" t="n">
         <v>0</v>
@@ -3971,31 +3963,31 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>43009</v>
+        <v>42979</v>
       </c>
       <c r="B67" t="n">
+        <v>102.6999969482422</v>
+      </c>
+      <c r="C67" t="n">
+        <v>114.25</v>
+      </c>
+      <c r="D67" t="n">
+        <v>102.5999984741211</v>
+      </c>
+      <c r="E67" t="n">
         <v>106.3000030517578</v>
       </c>
-      <c r="C67" t="n">
-        <v>136</v>
-      </c>
-      <c r="D67" t="n">
-        <v>106.2750015258789</v>
-      </c>
-      <c r="E67" t="n">
-        <v>130.0500030517578</v>
-      </c>
       <c r="F67" t="n">
-        <v>121.2874450683594</v>
+        <v>98.61441802978516</v>
       </c>
       <c r="G67" t="n">
-        <v>97976168</v>
+        <v>53943510</v>
       </c>
       <c r="H67" t="n">
         <v>2017</v>
       </c>
       <c r="I67" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J67" t="n">
         <v>1</v>
@@ -4010,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O67" t="n">
         <v>0</v>
@@ -4024,31 +4016,31 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>43040</v>
+        <v>43009</v>
       </c>
       <c r="B68" t="n">
-        <v>131</v>
+        <v>106.3000030517578</v>
       </c>
       <c r="C68" t="n">
-        <v>145.6499938964844</v>
+        <v>136</v>
       </c>
       <c r="D68" t="n">
-        <v>126.2249984741211</v>
+        <v>106.2750015258789</v>
       </c>
       <c r="E68" t="n">
-        <v>131.4250030517578</v>
+        <v>130.0500030517578</v>
       </c>
       <c r="F68" t="n">
-        <v>122.56982421875</v>
+        <v>121.2874450683594</v>
       </c>
       <c r="G68" t="n">
-        <v>116237776</v>
+        <v>97976168</v>
       </c>
       <c r="H68" t="n">
         <v>2017</v>
       </c>
       <c r="I68" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J68" t="n">
         <v>1</v>
@@ -4063,10 +4055,10 @@
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P68" t="n">
         <v>0</v>
@@ -4077,31 +4069,31 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>43070</v>
+        <v>43040</v>
       </c>
       <c r="B69" t="n">
-        <v>132.3500061035156</v>
+        <v>131</v>
       </c>
       <c r="C69" t="n">
-        <v>133.9250030517578</v>
+        <v>145.6499938964844</v>
       </c>
       <c r="D69" t="n">
-        <v>117.5</v>
+        <v>126.2249984741211</v>
       </c>
       <c r="E69" t="n">
-        <v>123.4499969482422</v>
+        <v>131.4250030517578</v>
       </c>
       <c r="F69" t="n">
-        <v>115.1321334838867</v>
+        <v>122.56982421875</v>
       </c>
       <c r="G69" t="n">
-        <v>72297238</v>
+        <v>116237776</v>
       </c>
       <c r="H69" t="n">
         <v>2017</v>
       </c>
       <c r="I69" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J69" t="n">
         <v>1</v>
@@ -4116,10 +4108,10 @@
         <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P69" t="n">
         <v>0</v>
@@ -4130,31 +4122,31 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>43101</v>
+        <v>43070</v>
       </c>
       <c r="B70" t="n">
-        <v>123.6500015258789</v>
+        <v>132.3500061035156</v>
       </c>
       <c r="C70" t="n">
-        <v>128.6000061035156</v>
+        <v>133.9250030517578</v>
       </c>
       <c r="D70" t="n">
-        <v>111.0500030517578</v>
+        <v>117.5</v>
       </c>
       <c r="E70" t="n">
-        <v>112.9749984741211</v>
+        <v>123.4499969482422</v>
       </c>
       <c r="F70" t="n">
-        <v>105.3629379272461</v>
+        <v>115.1321334838867</v>
       </c>
       <c r="G70" t="n">
-        <v>64271934</v>
+        <v>72297238</v>
       </c>
       <c r="H70" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J70" t="n">
         <v>1</v>
@@ -4169,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
@@ -4183,31 +4175,31 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>43132</v>
+        <v>43101</v>
       </c>
       <c r="B71" t="n">
-        <v>114.25</v>
+        <v>123.6500015258789</v>
       </c>
       <c r="C71" t="n">
-        <v>117.8499984741211</v>
+        <v>128.6000061035156</v>
       </c>
       <c r="D71" t="n">
-        <v>93.30000305175781</v>
+        <v>111.0500030517578</v>
       </c>
       <c r="E71" t="n">
-        <v>98.19999694824219</v>
+        <v>112.9749984741211</v>
       </c>
       <c r="F71" t="n">
-        <v>91.58345794677734</v>
+        <v>105.3629379272461</v>
       </c>
       <c r="G71" t="n">
-        <v>84324494</v>
+        <v>64271934</v>
       </c>
       <c r="H71" t="n">
         <v>2018</v>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
         <v>1</v>
@@ -4222,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O71" t="n">
         <v>0</v>
@@ -4236,31 +4228,31 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="B72" t="n">
-        <v>97.97499847412109</v>
+        <v>114.25</v>
       </c>
       <c r="C72" t="n">
-        <v>102.9250030517578</v>
+        <v>117.8499984741211</v>
       </c>
       <c r="D72" t="n">
-        <v>90.67500305175781</v>
+        <v>93.30000305175781</v>
       </c>
       <c r="E72" t="n">
-        <v>95.19999694824219</v>
+        <v>98.19999694824219</v>
       </c>
       <c r="F72" t="n">
-        <v>88.78558349609375</v>
+        <v>91.58345794677734</v>
       </c>
       <c r="G72" t="n">
-        <v>89858794</v>
+        <v>84324494</v>
       </c>
       <c r="H72" t="n">
         <v>2018</v>
       </c>
       <c r="I72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J72" t="n">
         <v>1</v>
@@ -4275,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O72" t="n">
         <v>0</v>
@@ -4284,36 +4276,36 @@
         <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>43191</v>
+        <v>43160</v>
       </c>
       <c r="B73" t="n">
-        <v>97.55000305175781</v>
+        <v>97.97499847412109</v>
       </c>
       <c r="C73" t="n">
-        <v>109.1999969482422</v>
+        <v>102.9250030517578</v>
       </c>
       <c r="D73" t="n">
-        <v>96.375</v>
+        <v>90.67500305175781</v>
       </c>
       <c r="E73" t="n">
-        <v>104.9000015258789</v>
+        <v>95.19999694824219</v>
       </c>
       <c r="F73" t="n">
-        <v>98.10018157958984</v>
+        <v>88.78558349609375</v>
       </c>
       <c r="G73" t="n">
-        <v>75384673</v>
+        <v>89858794</v>
       </c>
       <c r="H73" t="n">
         <v>2018</v>
       </c>
       <c r="I73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J73" t="n">
         <v>1</v>
@@ -4328,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O73" t="n">
         <v>0</v>
@@ -4337,36 +4329,36 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>43221</v>
+        <v>43191</v>
       </c>
       <c r="B74" t="n">
+        <v>97.55000305175781</v>
+      </c>
+      <c r="C74" t="n">
+        <v>109.1999969482422</v>
+      </c>
+      <c r="D74" t="n">
+        <v>96.375</v>
+      </c>
+      <c r="E74" t="n">
         <v>104.9000015258789</v>
       </c>
-      <c r="C74" t="n">
-        <v>108.5</v>
-      </c>
-      <c r="D74" t="n">
-        <v>91</v>
-      </c>
-      <c r="E74" t="n">
-        <v>92.09999847412109</v>
-      </c>
       <c r="F74" t="n">
-        <v>86.12990570068359</v>
+        <v>98.10018157958984</v>
       </c>
       <c r="G74" t="n">
-        <v>54355307</v>
+        <v>75384673</v>
       </c>
       <c r="H74" t="n">
         <v>2018</v>
       </c>
       <c r="I74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J74" t="n">
         <v>1</v>
@@ -4381,7 +4373,7 @@
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O74" t="n">
         <v>0</v>
@@ -4395,31 +4387,31 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>43252</v>
+        <v>43221</v>
       </c>
       <c r="B75" t="n">
-        <v>92.80000305175781</v>
+        <v>104.9000015258789</v>
       </c>
       <c r="C75" t="n">
-        <v>93.30000305175781</v>
+        <v>108.5</v>
       </c>
       <c r="D75" t="n">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="E75" t="n">
-        <v>74.94999694824219</v>
+        <v>92.09999847412109</v>
       </c>
       <c r="F75" t="n">
-        <v>70.09159851074219</v>
+        <v>86.12990570068359</v>
       </c>
       <c r="G75" t="n">
-        <v>86507395</v>
+        <v>54355307</v>
       </c>
       <c r="H75" t="n">
         <v>2018</v>
       </c>
       <c r="I75" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J75" t="n">
         <v>1</v>
@@ -4434,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O75" t="n">
         <v>0</v>
@@ -4448,31 +4440,31 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>43282</v>
+        <v>43252</v>
       </c>
       <c r="B76" t="n">
-        <v>76</v>
+        <v>92.80000305175781</v>
       </c>
       <c r="C76" t="n">
-        <v>76.09999847412109</v>
+        <v>93.30000305175781</v>
       </c>
       <c r="D76" t="n">
-        <v>60.59999847412109</v>
+        <v>70</v>
       </c>
       <c r="E76" t="n">
-        <v>70.55000305175781</v>
+        <v>74.94999694824219</v>
       </c>
       <c r="F76" t="n">
-        <v>65.97682952880859</v>
+        <v>70.09159851074219</v>
       </c>
       <c r="G76" t="n">
-        <v>133088758</v>
+        <v>86507395</v>
       </c>
       <c r="H76" t="n">
         <v>2018</v>
       </c>
       <c r="I76" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J76" t="n">
         <v>1</v>
@@ -4487,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O76" t="n">
         <v>0</v>
@@ -4501,31 +4493,31 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>43313</v>
+        <v>43282</v>
       </c>
       <c r="B77" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C77" t="n">
-        <v>79.59999847412109</v>
+        <v>76.09999847412109</v>
       </c>
       <c r="D77" t="n">
-        <v>69.94999694824219</v>
+        <v>60.59999847412109</v>
       </c>
       <c r="E77" t="n">
-        <v>72.05000305175781</v>
+        <v>70.55000305175781</v>
       </c>
       <c r="F77" t="n">
-        <v>67.37958526611328</v>
+        <v>65.97682952880859</v>
       </c>
       <c r="G77" t="n">
-        <v>111259773</v>
+        <v>133088758</v>
       </c>
       <c r="H77" t="n">
         <v>2018</v>
       </c>
       <c r="I77" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J77" t="n">
         <v>1</v>
@@ -4540,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O77" t="n">
         <v>0</v>
@@ -4554,31 +4546,31 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>43344</v>
+        <v>43313</v>
       </c>
       <c r="B78" t="n">
-        <v>72.09999847412109</v>
+        <v>71</v>
       </c>
       <c r="C78" t="n">
-        <v>74.40000152587891</v>
+        <v>79.59999847412109</v>
       </c>
       <c r="D78" t="n">
-        <v>57.59999847412109</v>
+        <v>69.94999694824219</v>
       </c>
       <c r="E78" t="n">
-        <v>58.5</v>
+        <v>72.05000305175781</v>
       </c>
       <c r="F78" t="n">
-        <v>54.70792388916016</v>
+        <v>67.37958526611328</v>
       </c>
       <c r="G78" t="n">
-        <v>81931400</v>
+        <v>111259773</v>
       </c>
       <c r="H78" t="n">
         <v>2018</v>
       </c>
       <c r="I78" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J78" t="n">
         <v>1</v>
@@ -4593,7 +4585,7 @@
         <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O78" t="n">
         <v>0</v>
@@ -4607,31 +4599,31 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>43374</v>
+        <v>43344</v>
       </c>
       <c r="B79" t="n">
+        <v>72.09999847412109</v>
+      </c>
+      <c r="C79" t="n">
+        <v>74.40000152587891</v>
+      </c>
+      <c r="D79" t="n">
+        <v>57.59999847412109</v>
+      </c>
+      <c r="E79" t="n">
         <v>58.5</v>
       </c>
-      <c r="C79" t="n">
-        <v>60.09999847412109</v>
-      </c>
-      <c r="D79" t="n">
-        <v>50.79999923706055</v>
-      </c>
-      <c r="E79" t="n">
-        <v>55.25</v>
-      </c>
       <c r="F79" t="n">
-        <v>52.09794616699219</v>
+        <v>54.70792388916016</v>
       </c>
       <c r="G79" t="n">
-        <v>161527985</v>
+        <v>81931400</v>
       </c>
       <c r="H79" t="n">
         <v>2018</v>
       </c>
       <c r="I79" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J79" t="n">
         <v>1</v>
@@ -4646,7 +4638,7 @@
         <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O79" t="n">
         <v>0</v>
@@ -4660,31 +4652,31 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>43405</v>
+        <v>43374</v>
       </c>
       <c r="B80" t="n">
-        <v>56.15000152587891</v>
+        <v>58.5</v>
       </c>
       <c r="C80" t="n">
-        <v>68.84999847412109</v>
+        <v>60.09999847412109</v>
       </c>
       <c r="D80" t="n">
-        <v>52.5</v>
+        <v>50.79999923706055</v>
       </c>
       <c r="E80" t="n">
-        <v>52.90000152587891</v>
+        <v>55.25</v>
       </c>
       <c r="F80" t="n">
-        <v>49.88201522827148</v>
+        <v>52.09794616699219</v>
       </c>
       <c r="G80" t="n">
-        <v>143226481</v>
+        <v>161527985</v>
       </c>
       <c r="H80" t="n">
         <v>2018</v>
       </c>
       <c r="I80" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J80" t="n">
         <v>1</v>
@@ -4699,7 +4691,7 @@
         <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O80" t="n">
         <v>0</v>
@@ -4713,31 +4705,31 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>43435</v>
+        <v>43405</v>
       </c>
       <c r="B81" t="n">
-        <v>53.75</v>
+        <v>56.15000152587891</v>
       </c>
       <c r="C81" t="n">
-        <v>59.45000076293945</v>
+        <v>68.84999847412109</v>
       </c>
       <c r="D81" t="n">
-        <v>47.65000152587891</v>
+        <v>52.5</v>
       </c>
       <c r="E81" t="n">
-        <v>57.75</v>
+        <v>52.90000152587891</v>
       </c>
       <c r="F81" t="n">
-        <v>54.455322265625</v>
+        <v>49.88201522827148</v>
       </c>
       <c r="G81" t="n">
-        <v>229419876</v>
+        <v>143226481</v>
       </c>
       <c r="H81" t="n">
         <v>2018</v>
       </c>
       <c r="I81" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J81" t="n">
         <v>1</v>
@@ -4752,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O81" t="n">
         <v>0</v>
@@ -4766,31 +4758,31 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>43466</v>
+        <v>43435</v>
       </c>
       <c r="B82" t="n">
-        <v>58.09999847412109</v>
+        <v>53.75</v>
       </c>
       <c r="C82" t="n">
-        <v>63.20000076293945</v>
+        <v>59.45000076293945</v>
       </c>
       <c r="D82" t="n">
-        <v>55.5</v>
+        <v>47.65000152587891</v>
       </c>
       <c r="E82" t="n">
-        <v>58.70000076293945</v>
+        <v>57.75</v>
       </c>
       <c r="F82" t="n">
-        <v>55.35112762451172</v>
+        <v>54.455322265625</v>
       </c>
       <c r="G82" t="n">
-        <v>184816306</v>
+        <v>229419876</v>
       </c>
       <c r="H82" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J82" t="n">
         <v>1</v>
@@ -4805,7 +4797,7 @@
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O82" t="n">
         <v>0</v>
@@ -4819,31 +4811,31 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="B83" t="n">
-        <v>59</v>
+        <v>58.09999847412109</v>
       </c>
       <c r="C83" t="n">
-        <v>60</v>
+        <v>63.20000076293945</v>
       </c>
       <c r="D83" t="n">
-        <v>47.20000076293945</v>
+        <v>55.5</v>
       </c>
       <c r="E83" t="n">
-        <v>52.84999847412109</v>
+        <v>58.70000076293945</v>
       </c>
       <c r="F83" t="n">
-        <v>49.83486938476562</v>
+        <v>55.35112762451172</v>
       </c>
       <c r="G83" t="n">
-        <v>162118687</v>
+        <v>184816306</v>
       </c>
       <c r="H83" t="n">
         <v>2019</v>
       </c>
       <c r="I83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
         <v>1</v>
@@ -4858,10 +4850,10 @@
         <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P83" t="n">
         <v>0</v>
@@ -4872,31 +4864,31 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="B84" t="n">
-        <v>53.20000076293945</v>
+        <v>59</v>
       </c>
       <c r="C84" t="n">
-        <v>68.30000305175781</v>
+        <v>60</v>
       </c>
       <c r="D84" t="n">
-        <v>53.04999923706055</v>
+        <v>47.20000076293945</v>
       </c>
       <c r="E84" t="n">
-        <v>66.30000305175781</v>
+        <v>52.84999847412109</v>
       </c>
       <c r="F84" t="n">
-        <v>62.51753997802734</v>
+        <v>49.83486938476562</v>
       </c>
       <c r="G84" t="n">
-        <v>272069819</v>
+        <v>162118687</v>
       </c>
       <c r="H84" t="n">
         <v>2019</v>
       </c>
       <c r="I84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J84" t="n">
         <v>1</v>
@@ -4911,10 +4903,10 @@
         <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P84" t="n">
         <v>0</v>
@@ -4925,31 +4917,31 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="B85" t="n">
-        <v>67</v>
+        <v>53.20000076293945</v>
       </c>
       <c r="C85" t="n">
-        <v>67.90000152587891</v>
+        <v>68.30000305175781</v>
       </c>
       <c r="D85" t="n">
-        <v>57.09999847412109</v>
+        <v>53.04999923706055</v>
       </c>
       <c r="E85" t="n">
-        <v>57.95000076293945</v>
+        <v>66.30000305175781</v>
       </c>
       <c r="F85" t="n">
-        <v>54.64391708374023</v>
+        <v>62.51753997802734</v>
       </c>
       <c r="G85" t="n">
-        <v>167557219</v>
+        <v>272069819</v>
       </c>
       <c r="H85" t="n">
         <v>2019</v>
       </c>
       <c r="I85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J85" t="n">
         <v>1</v>
@@ -4964,10 +4956,10 @@
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P85" t="n">
         <v>0</v>
@@ -4978,31 +4970,31 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="B86" t="n">
+        <v>67</v>
+      </c>
+      <c r="C86" t="n">
+        <v>67.90000152587891</v>
+      </c>
+      <c r="D86" t="n">
+        <v>57.09999847412109</v>
+      </c>
+      <c r="E86" t="n">
         <v>57.95000076293945</v>
       </c>
-      <c r="C86" t="n">
-        <v>65.40000152587891</v>
-      </c>
-      <c r="D86" t="n">
-        <v>51.15000152587891</v>
-      </c>
-      <c r="E86" t="n">
-        <v>61.90000152587891</v>
-      </c>
       <c r="F86" t="n">
-        <v>58.36856079101562</v>
+        <v>54.64391708374023</v>
       </c>
       <c r="G86" t="n">
-        <v>160336201</v>
+        <v>167557219</v>
       </c>
       <c r="H86" t="n">
         <v>2019</v>
       </c>
       <c r="I86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J86" t="n">
         <v>1</v>
@@ -5017,7 +5009,7 @@
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O86" t="n">
         <v>0</v>
@@ -5031,31 +5023,31 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="B87" t="n">
-        <v>61.70000076293945</v>
+        <v>57.95000076293945</v>
       </c>
       <c r="C87" t="n">
-        <v>64.40000152587891</v>
+        <v>65.40000152587891</v>
       </c>
       <c r="D87" t="n">
-        <v>55</v>
+        <v>51.15000152587891</v>
       </c>
       <c r="E87" t="n">
-        <v>59.59999847412109</v>
+        <v>61.90000152587891</v>
       </c>
       <c r="F87" t="n">
-        <v>56.19977951049805</v>
+        <v>58.36856079101562</v>
       </c>
       <c r="G87" t="n">
-        <v>138296451</v>
+        <v>160336201</v>
       </c>
       <c r="H87" t="n">
         <v>2019</v>
       </c>
       <c r="I87" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J87" t="n">
         <v>1</v>
@@ -5070,7 +5062,7 @@
         <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O87" t="n">
         <v>0</v>
@@ -5079,36 +5071,36 @@
         <v>0</v>
       </c>
       <c r="Q87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>43647</v>
+        <v>43617</v>
       </c>
       <c r="B88" t="n">
-        <v>59.79999923706055</v>
+        <v>61.70000076293945</v>
       </c>
       <c r="C88" t="n">
-        <v>62.34999847412109</v>
+        <v>64.40000152587891</v>
       </c>
       <c r="D88" t="n">
-        <v>40.40000152587891</v>
+        <v>55</v>
       </c>
       <c r="E88" t="n">
-        <v>42.75</v>
+        <v>59.59999847412109</v>
       </c>
       <c r="F88" t="n">
-        <v>40.31108474731445</v>
+        <v>56.19977951049805</v>
       </c>
       <c r="G88" t="n">
-        <v>232483094</v>
+        <v>138296451</v>
       </c>
       <c r="H88" t="n">
         <v>2019</v>
       </c>
       <c r="I88" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J88" t="n">
         <v>1</v>
@@ -5123,7 +5115,7 @@
         <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="O88" t="n">
         <v>0</v>
@@ -5132,36 +5124,36 @@
         <v>0</v>
       </c>
       <c r="Q88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>43678</v>
+        <v>43647</v>
       </c>
       <c r="B89" t="n">
-        <v>41.90000152587891</v>
+        <v>59.79999923706055</v>
       </c>
       <c r="C89" t="n">
-        <v>44.70000076293945</v>
+        <v>62.34999847412109</v>
       </c>
       <c r="D89" t="n">
-        <v>28.5</v>
+        <v>40.40000152587891</v>
       </c>
       <c r="E89" t="n">
-        <v>35.34999847412109</v>
+        <v>42.75</v>
       </c>
       <c r="F89" t="n">
-        <v>33.33325576782227</v>
+        <v>40.31108474731445</v>
       </c>
       <c r="G89" t="n">
-        <v>435599966</v>
+        <v>232483094</v>
       </c>
       <c r="H89" t="n">
         <v>2019</v>
       </c>
       <c r="I89" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J89" t="n">
         <v>1</v>
@@ -5176,45 +5168,45 @@
         <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O89" t="n">
+        <v>0</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="n">
         <v>2</v>
-      </c>
-      <c r="P89" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q89" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>43709</v>
+        <v>43678</v>
       </c>
       <c r="B90" t="n">
+        <v>41.90000152587891</v>
+      </c>
+      <c r="C90" t="n">
+        <v>44.70000076293945</v>
+      </c>
+      <c r="D90" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="E90" t="n">
         <v>35.34999847412109</v>
       </c>
-      <c r="C90" t="n">
-        <v>41</v>
-      </c>
-      <c r="D90" t="n">
-        <v>32.79999923706055</v>
-      </c>
-      <c r="E90" t="n">
-        <v>34.90000152587891</v>
-      </c>
       <c r="F90" t="n">
-        <v>32.908935546875</v>
+        <v>33.33325576782227</v>
       </c>
       <c r="G90" t="n">
-        <v>344711097</v>
+        <v>435599966</v>
       </c>
       <c r="H90" t="n">
         <v>2019</v>
       </c>
       <c r="I90" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J90" t="n">
         <v>1</v>
@@ -5229,10 +5221,10 @@
         <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P90" t="n">
         <v>0</v>
@@ -5243,31 +5235,31 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>43739</v>
+        <v>43709</v>
       </c>
       <c r="B91" t="n">
-        <v>35.70000076293945</v>
+        <v>35.34999847412109</v>
       </c>
       <c r="C91" t="n">
-        <v>38.95000076293945</v>
+        <v>41</v>
       </c>
       <c r="D91" t="n">
-        <v>31.29999923706055</v>
+        <v>32.79999923706055</v>
       </c>
       <c r="E91" t="n">
-        <v>37.5</v>
+        <v>34.90000152587891</v>
       </c>
       <c r="F91" t="n">
-        <v>35.97763061523438</v>
+        <v>32.908935546875</v>
       </c>
       <c r="G91" t="n">
-        <v>337256943</v>
+        <v>344711097</v>
       </c>
       <c r="H91" t="n">
         <v>2019</v>
       </c>
       <c r="I91" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J91" t="n">
         <v>1</v>
@@ -5282,7 +5274,7 @@
         <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O91" t="n">
         <v>0</v>
@@ -5296,31 +5288,31 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>43770</v>
+        <v>43739</v>
       </c>
       <c r="B92" t="n">
-        <v>37.70000076293945</v>
+        <v>35.70000076293945</v>
       </c>
       <c r="C92" t="n">
-        <v>45.79999923706055</v>
+        <v>38.95000076293945</v>
       </c>
       <c r="D92" t="n">
-        <v>35.5</v>
+        <v>31.29999923706055</v>
       </c>
       <c r="E92" t="n">
-        <v>38.75</v>
+        <v>37.5</v>
       </c>
       <c r="F92" t="n">
-        <v>37.1768798828125</v>
+        <v>35.97763061523438</v>
       </c>
       <c r="G92" t="n">
-        <v>375877190</v>
+        <v>337256943</v>
       </c>
       <c r="H92" t="n">
         <v>2019</v>
       </c>
       <c r="I92" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J92" t="n">
         <v>1</v>
@@ -5335,10 +5327,10 @@
         <v>0</v>
       </c>
       <c r="N92" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P92" t="n">
         <v>0</v>
@@ -5349,31 +5341,31 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>43800</v>
+        <v>43770</v>
       </c>
       <c r="B93" t="n">
-        <v>38.90000152587891</v>
+        <v>37.70000076293945</v>
       </c>
       <c r="C93" t="n">
-        <v>38.90000152587891</v>
+        <v>45.79999923706055</v>
       </c>
       <c r="D93" t="n">
-        <v>32.20000076293945</v>
+        <v>35.5</v>
       </c>
       <c r="E93" t="n">
-        <v>34.84999847412109</v>
+        <v>38.75</v>
       </c>
       <c r="F93" t="n">
-        <v>33.43521118164062</v>
+        <v>37.1768798828125</v>
       </c>
       <c r="G93" t="n">
-        <v>276295318</v>
+        <v>375877190</v>
       </c>
       <c r="H93" t="n">
         <v>2019</v>
       </c>
       <c r="I93" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J93" t="n">
         <v>1</v>
@@ -5388,45 +5380,45 @@
         <v>0</v>
       </c>
       <c r="N93" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P93" t="n">
         <v>0</v>
       </c>
       <c r="Q93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>43831</v>
+        <v>43800</v>
       </c>
       <c r="B94" t="n">
-        <v>34.95000076293945</v>
+        <v>38.90000152587891</v>
       </c>
       <c r="C94" t="n">
-        <v>39.70000076293945</v>
+        <v>38.90000152587891</v>
       </c>
       <c r="D94" t="n">
-        <v>33.40000152587891</v>
+        <v>32.20000076293945</v>
       </c>
       <c r="E94" t="n">
-        <v>33.70000076293945</v>
+        <v>34.84999847412109</v>
       </c>
       <c r="F94" t="n">
-        <v>32.3318977355957</v>
+        <v>33.43521118164062</v>
       </c>
       <c r="G94" t="n">
-        <v>435023771</v>
+        <v>276295318</v>
       </c>
       <c r="H94" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J94" t="n">
         <v>1</v>
@@ -5441,7 +5433,7 @@
         <v>0</v>
       </c>
       <c r="N94" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O94" t="n">
         <v>0</v>
@@ -5450,36 +5442,36 @@
         <v>0</v>
       </c>
       <c r="Q94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43862</v>
+        <v>43831</v>
       </c>
       <c r="B95" t="n">
-        <v>33.65000152587891</v>
+        <v>34.95000076293945</v>
       </c>
       <c r="C95" t="n">
-        <v>34.70000076293945</v>
+        <v>39.70000076293945</v>
       </c>
       <c r="D95" t="n">
-        <v>25.85000038146973</v>
+        <v>33.40000152587891</v>
       </c>
       <c r="E95" t="n">
-        <v>26.39999961853027</v>
+        <v>33.70000076293945</v>
       </c>
       <c r="F95" t="n">
-        <v>25.32825088500977</v>
+        <v>32.3318977355957</v>
       </c>
       <c r="G95" t="n">
-        <v>222503056</v>
+        <v>435023771</v>
       </c>
       <c r="H95" t="n">
         <v>2020</v>
       </c>
       <c r="I95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
         <v>1</v>
@@ -5494,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="N95" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O95" t="n">
         <v>0</v>
@@ -5508,31 +5500,31 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43891</v>
+        <v>43862</v>
       </c>
       <c r="B96" t="n">
-        <v>27.29999923706055</v>
+        <v>33.65000152587891</v>
       </c>
       <c r="C96" t="n">
-        <v>27.89999961853027</v>
+        <v>34.70000076293945</v>
       </c>
       <c r="D96" t="n">
-        <v>14.05000019073486</v>
+        <v>25.85000038146973</v>
       </c>
       <c r="E96" t="n">
-        <v>16.29999923706055</v>
+        <v>26.39999961853027</v>
       </c>
       <c r="F96" t="n">
-        <v>15.63827610015869</v>
+        <v>25.32825088500977</v>
       </c>
       <c r="G96" t="n">
-        <v>236803008</v>
+        <v>222503056</v>
       </c>
       <c r="H96" t="n">
         <v>2020</v>
       </c>
       <c r="I96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J96" t="n">
         <v>1</v>
@@ -5547,45 +5539,45 @@
         <v>0</v>
       </c>
       <c r="N96" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P96" t="n">
         <v>0</v>
       </c>
       <c r="Q96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43922</v>
+        <v>43891</v>
       </c>
       <c r="B97" t="n">
-        <v>16.25</v>
+        <v>27.29999923706055</v>
       </c>
       <c r="C97" t="n">
-        <v>25.10000038146973</v>
+        <v>27.89999961853027</v>
       </c>
       <c r="D97" t="n">
-        <v>15.89999961853027</v>
+        <v>14.05000019073486</v>
       </c>
       <c r="E97" t="n">
-        <v>19.79999923706055</v>
+        <v>16.29999923706055</v>
       </c>
       <c r="F97" t="n">
-        <v>18.99618721008301</v>
+        <v>15.63827610015869</v>
       </c>
       <c r="G97" t="n">
-        <v>116773410</v>
+        <v>236803008</v>
       </c>
       <c r="H97" t="n">
         <v>2020</v>
       </c>
       <c r="I97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J97" t="n">
         <v>1</v>
@@ -5600,45 +5592,45 @@
         <v>0</v>
       </c>
       <c r="N97" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P97" t="n">
         <v>0</v>
       </c>
       <c r="Q97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43952</v>
+        <v>43922</v>
       </c>
       <c r="B98" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="C98" t="n">
+        <v>25.10000038146973</v>
+      </c>
+      <c r="D98" t="n">
+        <v>15.89999961853027</v>
+      </c>
+      <c r="E98" t="n">
         <v>19.79999923706055</v>
       </c>
-      <c r="C98" t="n">
-        <v>19.79999923706055</v>
-      </c>
-      <c r="D98" t="n">
-        <v>16.79999923706055</v>
-      </c>
-      <c r="E98" t="n">
-        <v>17.29999923706055</v>
-      </c>
       <c r="F98" t="n">
-        <v>16.59767913818359</v>
+        <v>18.99618721008301</v>
       </c>
       <c r="G98" t="n">
-        <v>150200715</v>
+        <v>116773410</v>
       </c>
       <c r="H98" t="n">
         <v>2020</v>
       </c>
       <c r="I98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J98" t="n">
         <v>1</v>
@@ -5653,7 +5645,7 @@
         <v>0</v>
       </c>
       <c r="N98" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O98" t="n">
         <v>0</v>
@@ -5667,31 +5659,31 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43983</v>
+        <v>43952</v>
       </c>
       <c r="B99" t="n">
-        <v>17.5</v>
+        <v>19.79999923706055</v>
       </c>
       <c r="C99" t="n">
-        <v>25.89999961853027</v>
+        <v>19.79999923706055</v>
       </c>
       <c r="D99" t="n">
-        <v>17.45000076293945</v>
+        <v>16.79999923706055</v>
       </c>
       <c r="E99" t="n">
-        <v>23.25</v>
+        <v>17.29999923706055</v>
       </c>
       <c r="F99" t="n">
-        <v>22.30612945556641</v>
+        <v>16.59767913818359</v>
       </c>
       <c r="G99" t="n">
-        <v>347672192</v>
+        <v>150200715</v>
       </c>
       <c r="H99" t="n">
         <v>2020</v>
       </c>
       <c r="I99" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J99" t="n">
         <v>1</v>
@@ -5706,7 +5698,7 @@
         <v>0</v>
       </c>
       <c r="N99" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O99" t="n">
         <v>0</v>
@@ -5720,31 +5712,31 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44013</v>
+        <v>43983</v>
       </c>
       <c r="B100" t="n">
-        <v>23.5</v>
+        <v>17.5</v>
       </c>
       <c r="C100" t="n">
-        <v>28.35000038146973</v>
+        <v>25.89999961853027</v>
       </c>
       <c r="D100" t="n">
-        <v>23</v>
+        <v>17.45000076293945</v>
       </c>
       <c r="E100" t="n">
-        <v>23.10000038146973</v>
+        <v>23.25</v>
       </c>
       <c r="F100" t="n">
-        <v>22.1622200012207</v>
+        <v>22.30612945556641</v>
       </c>
       <c r="G100" t="n">
-        <v>326410619</v>
+        <v>347672192</v>
       </c>
       <c r="H100" t="n">
         <v>2020</v>
       </c>
       <c r="I100" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J100" t="n">
         <v>1</v>
@@ -5759,7 +5751,7 @@
         <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O100" t="n">
         <v>0</v>
@@ -5768,36 +5760,36 @@
         <v>0</v>
       </c>
       <c r="Q100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44044</v>
+        <v>44013</v>
       </c>
       <c r="B101" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="C101" t="n">
+        <v>28.35000038146973</v>
+      </c>
+      <c r="D101" t="n">
+        <v>23</v>
+      </c>
+      <c r="E101" t="n">
         <v>23.10000038146973</v>
       </c>
-      <c r="C101" t="n">
-        <v>30.39999961853027</v>
-      </c>
-      <c r="D101" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="E101" t="n">
-        <v>26.75</v>
-      </c>
       <c r="F101" t="n">
-        <v>25.66404151916504</v>
+        <v>22.1622200012207</v>
       </c>
       <c r="G101" t="n">
-        <v>302210858</v>
+        <v>326410619</v>
       </c>
       <c r="H101" t="n">
         <v>2020</v>
       </c>
       <c r="I101" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J101" t="n">
         <v>1</v>
@@ -5812,45 +5804,45 @@
         <v>0</v>
       </c>
       <c r="N101" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P101" t="n">
         <v>0</v>
       </c>
       <c r="Q101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44075</v>
+        <v>44044</v>
       </c>
       <c r="B102" t="n">
+        <v>23.10000038146973</v>
+      </c>
+      <c r="C102" t="n">
+        <v>30.39999961853027</v>
+      </c>
+      <c r="D102" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="E102" t="n">
         <v>26.75</v>
       </c>
-      <c r="C102" t="n">
-        <v>28.89999961853027</v>
-      </c>
-      <c r="D102" t="n">
-        <v>22.20000076293945</v>
-      </c>
-      <c r="E102" t="n">
-        <v>23.60000038146973</v>
-      </c>
       <c r="F102" t="n">
-        <v>22.64192199707031</v>
+        <v>25.66404151916504</v>
       </c>
       <c r="G102" t="n">
-        <v>121497308</v>
+        <v>302210858</v>
       </c>
       <c r="H102" t="n">
         <v>2020</v>
       </c>
       <c r="I102" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J102" t="n">
         <v>1</v>
@@ -5865,10 +5857,10 @@
         <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P102" t="n">
         <v>0</v>
@@ -5879,31 +5871,31 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44105</v>
+        <v>44075</v>
       </c>
       <c r="B103" t="n">
-        <v>23.79999923706055</v>
+        <v>26.75</v>
       </c>
       <c r="C103" t="n">
-        <v>24.25</v>
+        <v>28.89999961853027</v>
       </c>
       <c r="D103" t="n">
-        <v>22.25</v>
+        <v>22.20000076293945</v>
       </c>
       <c r="E103" t="n">
-        <v>22.79999923706055</v>
+        <v>23.60000038146973</v>
       </c>
       <c r="F103" t="n">
-        <v>21.87439918518066</v>
+        <v>22.64192199707031</v>
       </c>
       <c r="G103" t="n">
-        <v>68747996</v>
+        <v>121497308</v>
       </c>
       <c r="H103" t="n">
         <v>2020</v>
       </c>
       <c r="I103" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J103" t="n">
         <v>1</v>
@@ -5918,7 +5910,7 @@
         <v>0</v>
       </c>
       <c r="N103" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O103" t="n">
         <v>0</v>
@@ -5932,31 +5924,31 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44136</v>
+        <v>44105</v>
       </c>
       <c r="B104" t="n">
-        <v>22.89999961853027</v>
+        <v>23.79999923706055</v>
       </c>
       <c r="C104" t="n">
-        <v>26.75</v>
+        <v>24.25</v>
       </c>
       <c r="D104" t="n">
-        <v>22.35000038146973</v>
+        <v>22.25</v>
       </c>
       <c r="E104" t="n">
-        <v>26</v>
+        <v>22.79999923706055</v>
       </c>
       <c r="F104" t="n">
-        <v>24.94449043273926</v>
+        <v>21.87439918518066</v>
       </c>
       <c r="G104" t="n">
-        <v>156772897</v>
+        <v>68747996</v>
       </c>
       <c r="H104" t="n">
         <v>2020</v>
       </c>
       <c r="I104" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J104" t="n">
         <v>1</v>
@@ -5971,7 +5963,7 @@
         <v>0</v>
       </c>
       <c r="N104" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O104" t="n">
         <v>0</v>
@@ -5985,31 +5977,31 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44166</v>
+        <v>44136</v>
       </c>
       <c r="B105" t="n">
-        <v>26.20000076293945</v>
+        <v>22.89999961853027</v>
       </c>
       <c r="C105" t="n">
-        <v>32.40000152587891</v>
+        <v>26.75</v>
       </c>
       <c r="D105" t="n">
-        <v>25.60000038146973</v>
+        <v>22.35000038146973</v>
       </c>
       <c r="E105" t="n">
-        <v>29.14999961853027</v>
+        <v>26</v>
       </c>
       <c r="F105" t="n">
-        <v>28.11664009094238</v>
+        <v>24.94449043273926</v>
       </c>
       <c r="G105" t="n">
-        <v>378760373</v>
+        <v>156772897</v>
       </c>
       <c r="H105" t="n">
         <v>2020</v>
       </c>
       <c r="I105" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J105" t="n">
         <v>1</v>
@@ -6024,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="N105" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O105" t="n">
         <v>0</v>
@@ -6033,36 +6025,36 @@
         <v>0</v>
       </c>
       <c r="Q105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44197</v>
+        <v>44166</v>
       </c>
       <c r="B106" t="n">
-        <v>29.20000076293945</v>
+        <v>26.20000076293945</v>
       </c>
       <c r="C106" t="n">
-        <v>34.20000076293945</v>
+        <v>32.40000152587891</v>
       </c>
       <c r="D106" t="n">
-        <v>29.04999923706055</v>
+        <v>25.60000038146973</v>
       </c>
       <c r="E106" t="n">
-        <v>31.20000076293945</v>
+        <v>29.14999961853027</v>
       </c>
       <c r="F106" t="n">
-        <v>30.09396934509277</v>
+        <v>28.11664009094238</v>
       </c>
       <c r="G106" t="n">
-        <v>308980507</v>
+        <v>378760373</v>
       </c>
       <c r="H106" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J106" t="n">
         <v>1</v>
@@ -6077,7 +6069,7 @@
         <v>0</v>
       </c>
       <c r="N106" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O106" t="n">
         <v>0</v>
@@ -6086,36 +6078,36 @@
         <v>0</v>
       </c>
       <c r="Q106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44228</v>
+        <v>44197</v>
       </c>
       <c r="B107" t="n">
-        <v>31.89999961853027</v>
+        <v>29.20000076293945</v>
       </c>
       <c r="C107" t="n">
-        <v>43.95000076293945</v>
+        <v>34.20000076293945</v>
       </c>
       <c r="D107" t="n">
-        <v>31</v>
+        <v>29.04999923706055</v>
       </c>
       <c r="E107" t="n">
-        <v>42.84999847412109</v>
+        <v>31.20000076293945</v>
       </c>
       <c r="F107" t="n">
-        <v>41.33097839355469</v>
+        <v>30.09396934509277</v>
       </c>
       <c r="G107" t="n">
-        <v>497943775</v>
+        <v>308980507</v>
       </c>
       <c r="H107" t="n">
         <v>2021</v>
       </c>
       <c r="I107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J107" t="n">
         <v>1</v>
@@ -6130,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="N107" t="n">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="O107" t="n">
         <v>0</v>
@@ -6144,31 +6136,31 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44256</v>
+        <v>44228</v>
       </c>
       <c r="B108" t="n">
-        <v>43.65000152587891</v>
+        <v>31.89999961853027</v>
       </c>
       <c r="C108" t="n">
-        <v>54.04999923706055</v>
+        <v>43.95000076293945</v>
       </c>
       <c r="D108" t="n">
-        <v>40.20000076293945</v>
+        <v>31</v>
       </c>
       <c r="E108" t="n">
-        <v>46.79999923706055</v>
+        <v>42.84999847412109</v>
       </c>
       <c r="F108" t="n">
-        <v>45.14095306396484</v>
+        <v>41.33097839355469</v>
       </c>
       <c r="G108" t="n">
-        <v>467735960</v>
+        <v>497943775</v>
       </c>
       <c r="H108" t="n">
         <v>2021</v>
       </c>
       <c r="I108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J108" t="n">
         <v>1</v>
@@ -6183,7 +6175,7 @@
         <v>0</v>
       </c>
       <c r="N108" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O108" t="n">
         <v>0</v>
@@ -6197,31 +6189,31 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44287</v>
+        <v>44256</v>
       </c>
       <c r="B109" t="n">
-        <v>47.25</v>
+        <v>43.65000152587891</v>
       </c>
       <c r="C109" t="n">
-        <v>48.34999847412109</v>
+        <v>54.04999923706055</v>
       </c>
       <c r="D109" t="n">
-        <v>38.20000076293945</v>
+        <v>40.20000076293945</v>
       </c>
       <c r="E109" t="n">
-        <v>40.59999847412109</v>
+        <v>46.79999923706055</v>
       </c>
       <c r="F109" t="n">
-        <v>39.16073989868164</v>
+        <v>45.14095306396484</v>
       </c>
       <c r="G109" t="n">
-        <v>177344680</v>
+        <v>467735960</v>
       </c>
       <c r="H109" t="n">
         <v>2021</v>
       </c>
       <c r="I109" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J109" t="n">
         <v>1</v>
@@ -6236,7 +6228,7 @@
         <v>0</v>
       </c>
       <c r="N109" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O109" t="n">
         <v>0</v>
@@ -6250,31 +6242,31 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44317</v>
+        <v>44287</v>
       </c>
       <c r="B110" t="n">
-        <v>40.25</v>
+        <v>47.25</v>
       </c>
       <c r="C110" t="n">
-        <v>51.79999923706055</v>
+        <v>48.34999847412109</v>
       </c>
       <c r="D110" t="n">
-        <v>39.90000152587891</v>
+        <v>38.20000076293945</v>
       </c>
       <c r="E110" t="n">
-        <v>47.59999847412109</v>
+        <v>40.59999847412109</v>
       </c>
       <c r="F110" t="n">
-        <v>45.91259002685547</v>
+        <v>39.16073989868164</v>
       </c>
       <c r="G110" t="n">
-        <v>295037187</v>
+        <v>177344680</v>
       </c>
       <c r="H110" t="n">
         <v>2021</v>
       </c>
       <c r="I110" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J110" t="n">
         <v>1</v>
@@ -6289,7 +6281,7 @@
         <v>0</v>
       </c>
       <c r="N110" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O110" t="n">
         <v>0</v>
@@ -6303,31 +6295,31 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44348</v>
+        <v>44317</v>
       </c>
       <c r="B111" t="n">
-        <v>48</v>
+        <v>40.25</v>
       </c>
       <c r="C111" t="n">
-        <v>59.79999923706055</v>
+        <v>51.79999923706055</v>
       </c>
       <c r="D111" t="n">
-        <v>46.65000152587891</v>
+        <v>39.90000152587891</v>
       </c>
       <c r="E111" t="n">
-        <v>53.95000076293945</v>
+        <v>47.59999847412109</v>
       </c>
       <c r="F111" t="n">
-        <v>52.0374870300293</v>
+        <v>45.91259002685547</v>
       </c>
       <c r="G111" t="n">
-        <v>617612211</v>
+        <v>295037187</v>
       </c>
       <c r="H111" t="n">
         <v>2021</v>
       </c>
       <c r="I111" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J111" t="n">
         <v>1</v>
@@ -6342,10 +6334,10 @@
         <v>0</v>
       </c>
       <c r="N111" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P111" t="n">
         <v>0</v>
@@ -6356,31 +6348,31 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44378</v>
+        <v>44348</v>
       </c>
       <c r="B112" t="n">
-        <v>54.5</v>
+        <v>48</v>
       </c>
       <c r="C112" t="n">
-        <v>55.5</v>
+        <v>59.79999923706055</v>
       </c>
       <c r="D112" t="n">
-        <v>48.04999923706055</v>
+        <v>46.65000152587891</v>
       </c>
       <c r="E112" t="n">
-        <v>51.45000076293945</v>
+        <v>53.95000076293945</v>
       </c>
       <c r="F112" t="n">
-        <v>49.62611389160156</v>
+        <v>52.0374870300293</v>
       </c>
       <c r="G112" t="n">
-        <v>182378504</v>
+        <v>617612211</v>
       </c>
       <c r="H112" t="n">
         <v>2021</v>
       </c>
       <c r="I112" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J112" t="n">
         <v>1</v>
@@ -6395,10 +6387,10 @@
         <v>0</v>
       </c>
       <c r="N112" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P112" t="n">
         <v>0</v>
@@ -6409,31 +6401,31 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44409</v>
+        <v>44378</v>
       </c>
       <c r="B113" t="n">
-        <v>51.59999847412109</v>
+        <v>54.5</v>
       </c>
       <c r="C113" t="n">
-        <v>51.75</v>
+        <v>55.5</v>
       </c>
       <c r="D113" t="n">
-        <v>40.54999923706055</v>
+        <v>48.04999923706055</v>
       </c>
       <c r="E113" t="n">
-        <v>44.34999847412109</v>
+        <v>51.45000076293945</v>
       </c>
       <c r="F113" t="n">
-        <v>42.77780151367188</v>
+        <v>49.62611389160156</v>
       </c>
       <c r="G113" t="n">
-        <v>120205885</v>
+        <v>182378504</v>
       </c>
       <c r="H113" t="n">
         <v>2021</v>
       </c>
       <c r="I113" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J113" t="n">
         <v>1</v>
@@ -6448,7 +6440,7 @@
         <v>0</v>
       </c>
       <c r="N113" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O113" t="n">
         <v>0</v>
@@ -6462,31 +6454,31 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44440</v>
+        <v>44409</v>
       </c>
       <c r="B114" t="n">
-        <v>44.40000152587891</v>
+        <v>51.59999847412109</v>
       </c>
       <c r="C114" t="n">
-        <v>51</v>
+        <v>51.75</v>
       </c>
       <c r="D114" t="n">
-        <v>42.20000076293945</v>
+        <v>40.54999923706055</v>
       </c>
       <c r="E114" t="n">
-        <v>48.70000076293945</v>
+        <v>44.34999847412109</v>
       </c>
       <c r="F114" t="n">
-        <v>46.97359848022461</v>
+        <v>42.77780151367188</v>
       </c>
       <c r="G114" t="n">
-        <v>163764937</v>
+        <v>120205885</v>
       </c>
       <c r="H114" t="n">
         <v>2021</v>
       </c>
       <c r="I114" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J114" t="n">
         <v>1</v>
@@ -6501,7 +6493,7 @@
         <v>0</v>
       </c>
       <c r="N114" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O114" t="n">
         <v>0</v>
@@ -6515,31 +6507,31 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44470</v>
+        <v>44440</v>
       </c>
       <c r="B115" t="n">
-        <v>49</v>
+        <v>44.40000152587891</v>
       </c>
       <c r="C115" t="n">
-        <v>50.5</v>
+        <v>51</v>
       </c>
       <c r="D115" t="n">
-        <v>43.79999923706055</v>
+        <v>42.20000076293945</v>
       </c>
       <c r="E115" t="n">
-        <v>44.65000152587891</v>
+        <v>48.70000076293945</v>
       </c>
       <c r="F115" t="n">
-        <v>43.5419921875</v>
+        <v>46.97359848022461</v>
       </c>
       <c r="G115" t="n">
-        <v>123001650</v>
+        <v>163764937</v>
       </c>
       <c r="H115" t="n">
         <v>2021</v>
       </c>
       <c r="I115" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J115" t="n">
         <v>1</v>
@@ -6554,7 +6546,7 @@
         <v>0</v>
       </c>
       <c r="N115" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O115" t="n">
         <v>0</v>
@@ -6563,36 +6555,36 @@
         <v>0</v>
       </c>
       <c r="Q115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44501</v>
+        <v>44470</v>
       </c>
       <c r="B116" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C116" t="n">
-        <v>49.29999923706055</v>
+        <v>50.5</v>
       </c>
       <c r="D116" t="n">
-        <v>39.15000152587891</v>
+        <v>43.79999923706055</v>
       </c>
       <c r="E116" t="n">
-        <v>40.29999923706055</v>
+        <v>44.65000152587891</v>
       </c>
       <c r="F116" t="n">
-        <v>39.29993438720703</v>
+        <v>43.5419921875</v>
       </c>
       <c r="G116" t="n">
-        <v>81584969</v>
+        <v>123001650</v>
       </c>
       <c r="H116" t="n">
         <v>2021</v>
       </c>
       <c r="I116" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J116" t="n">
         <v>1</v>
@@ -6607,7 +6599,7 @@
         <v>0</v>
       </c>
       <c r="N116" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O116" t="n">
         <v>0</v>
@@ -6616,36 +6608,36 @@
         <v>0</v>
       </c>
       <c r="Q116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44531</v>
+        <v>44501</v>
       </c>
       <c r="B117" t="n">
-        <v>42.54999923706055</v>
+        <v>45</v>
       </c>
       <c r="C117" t="n">
-        <v>47.40000152587891</v>
+        <v>49.29999923706055</v>
       </c>
       <c r="D117" t="n">
-        <v>40.5</v>
+        <v>39.15000152587891</v>
       </c>
       <c r="E117" t="n">
-        <v>46</v>
+        <v>40.29999923706055</v>
       </c>
       <c r="F117" t="n">
-        <v>44.85848617553711</v>
+        <v>39.29993438720703</v>
       </c>
       <c r="G117" t="n">
-        <v>113501954</v>
+        <v>81584969</v>
       </c>
       <c r="H117" t="n">
         <v>2021</v>
       </c>
       <c r="I117" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J117" t="n">
         <v>1</v>
@@ -6660,7 +6652,7 @@
         <v>0</v>
       </c>
       <c r="N117" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O117" t="n">
         <v>0</v>
@@ -6674,31 +6666,31 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44562</v>
+        <v>44531</v>
       </c>
       <c r="B118" t="n">
-        <v>46.5</v>
+        <v>42.54999923706055</v>
       </c>
       <c r="C118" t="n">
-        <v>53.70000076293945</v>
+        <v>47.40000152587891</v>
       </c>
       <c r="D118" t="n">
-        <v>44.15000152587891</v>
+        <v>40.5</v>
       </c>
       <c r="E118" t="n">
-        <v>46.65000152587891</v>
+        <v>46</v>
       </c>
       <c r="F118" t="n">
-        <v>45.49235916137695</v>
+        <v>44.85848617553711</v>
       </c>
       <c r="G118" t="n">
-        <v>260206568</v>
+        <v>113501954</v>
       </c>
       <c r="H118" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J118" t="n">
         <v>1</v>
@@ -6713,10 +6705,10 @@
         <v>0</v>
       </c>
       <c r="N118" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P118" t="n">
         <v>0</v>
@@ -6727,31 +6719,31 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44593</v>
+        <v>44562</v>
       </c>
       <c r="B119" t="n">
-        <v>47.15000152587891</v>
+        <v>46.5</v>
       </c>
       <c r="C119" t="n">
-        <v>48.25</v>
+        <v>53.70000076293945</v>
       </c>
       <c r="D119" t="n">
-        <v>34.15000152587891</v>
+        <v>44.15000152587891</v>
       </c>
       <c r="E119" t="n">
-        <v>38.84999847412109</v>
+        <v>46.65000152587891</v>
       </c>
       <c r="F119" t="n">
-        <v>37.88591766357422</v>
+        <v>45.49235916137695</v>
       </c>
       <c r="G119" t="n">
-        <v>128412370</v>
+        <v>260206568</v>
       </c>
       <c r="H119" t="n">
         <v>2022</v>
       </c>
       <c r="I119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J119" t="n">
         <v>1</v>
@@ -6766,10 +6758,10 @@
         <v>0</v>
       </c>
       <c r="N119" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P119" t="n">
         <v>0</v>
@@ -6780,31 +6772,31 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44621</v>
+        <v>44593</v>
       </c>
       <c r="B120" t="n">
+        <v>47.15000152587891</v>
+      </c>
+      <c r="C120" t="n">
+        <v>48.25</v>
+      </c>
+      <c r="D120" t="n">
+        <v>34.15000152587891</v>
+      </c>
+      <c r="E120" t="n">
         <v>38.84999847412109</v>
       </c>
-      <c r="C120" t="n">
-        <v>40.5</v>
-      </c>
-      <c r="D120" t="n">
-        <v>35.59999847412109</v>
-      </c>
-      <c r="E120" t="n">
-        <v>36.29999923706055</v>
-      </c>
       <c r="F120" t="n">
-        <v>35.39920043945312</v>
+        <v>37.88591766357422</v>
       </c>
       <c r="G120" t="n">
-        <v>130524567</v>
+        <v>128412370</v>
       </c>
       <c r="H120" t="n">
         <v>2022</v>
       </c>
       <c r="I120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J120" t="n">
         <v>1</v>
@@ -6819,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="N120" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O120" t="n">
         <v>0</v>
@@ -6833,31 +6825,31 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44652</v>
+        <v>44621</v>
       </c>
       <c r="B121" t="n">
-        <v>36.40000152587891</v>
+        <v>38.84999847412109</v>
       </c>
       <c r="C121" t="n">
-        <v>42.09999847412109</v>
+        <v>40.5</v>
       </c>
       <c r="D121" t="n">
-        <v>36.40000152587891</v>
+        <v>35.59999847412109</v>
       </c>
       <c r="E121" t="n">
-        <v>37.90000152587891</v>
+        <v>36.29999923706055</v>
       </c>
       <c r="F121" t="n">
-        <v>36.95949172973633</v>
+        <v>35.39920043945312</v>
       </c>
       <c r="G121" t="n">
-        <v>93024087</v>
+        <v>130524567</v>
       </c>
       <c r="H121" t="n">
         <v>2022</v>
       </c>
       <c r="I121" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J121" t="n">
         <v>1</v>
@@ -6872,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="N121" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O121" t="n">
         <v>0</v>
@@ -6886,31 +6878,31 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="B122" t="n">
-        <v>37.59999847412109</v>
+        <v>36.40000152587891</v>
       </c>
       <c r="C122" t="n">
-        <v>37.79999923706055</v>
+        <v>42.09999847412109</v>
       </c>
       <c r="D122" t="n">
-        <v>30.75</v>
+        <v>36.40000152587891</v>
       </c>
       <c r="E122" t="n">
-        <v>33.54999923706055</v>
+        <v>37.90000152587891</v>
       </c>
       <c r="F122" t="n">
-        <v>32.71744155883789</v>
+        <v>36.95949172973633</v>
       </c>
       <c r="G122" t="n">
-        <v>71764388</v>
+        <v>93024087</v>
       </c>
       <c r="H122" t="n">
         <v>2022</v>
       </c>
       <c r="I122" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J122" t="n">
         <v>1</v>
@@ -6925,7 +6917,7 @@
         <v>0</v>
       </c>
       <c r="N122" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O122" t="n">
         <v>0</v>
@@ -6934,36 +6926,36 @@
         <v>0</v>
       </c>
       <c r="Q122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B123" t="n">
+        <v>37.59999847412109</v>
+      </c>
+      <c r="C123" t="n">
+        <v>37.79999923706055</v>
+      </c>
+      <c r="D123" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="E123" t="n">
         <v>33.54999923706055</v>
       </c>
-      <c r="C123" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D123" t="n">
-        <v>26.54999923706055</v>
-      </c>
-      <c r="E123" t="n">
-        <v>28.39999961853027</v>
-      </c>
       <c r="F123" t="n">
-        <v>27.69524002075195</v>
+        <v>32.71744155883789</v>
       </c>
       <c r="G123" t="n">
-        <v>78118269</v>
+        <v>71764388</v>
       </c>
       <c r="H123" t="n">
         <v>2022</v>
       </c>
       <c r="I123" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J123" t="n">
         <v>1</v>
@@ -6978,45 +6970,45 @@
         <v>0</v>
       </c>
       <c r="N123" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O123" t="n">
+        <v>0</v>
+      </c>
+      <c r="P123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q123" t="n">
         <v>2</v>
-      </c>
-      <c r="P123" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q123" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44743</v>
+        <v>44713</v>
       </c>
       <c r="B124" t="n">
-        <v>28.5</v>
+        <v>33.54999923706055</v>
       </c>
       <c r="C124" t="n">
-        <v>34.84999847412109</v>
+        <v>34.5</v>
       </c>
       <c r="D124" t="n">
-        <v>28.04999923706055</v>
+        <v>26.54999923706055</v>
       </c>
       <c r="E124" t="n">
-        <v>32.95000076293945</v>
+        <v>28.39999961853027</v>
       </c>
       <c r="F124" t="n">
-        <v>32.13233184814453</v>
+        <v>27.69524002075195</v>
       </c>
       <c r="G124" t="n">
-        <v>143341550</v>
+        <v>78118269</v>
       </c>
       <c r="H124" t="n">
         <v>2022</v>
       </c>
       <c r="I124" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J124" t="n">
         <v>1</v>
@@ -7031,10 +7023,10 @@
         <v>0</v>
       </c>
       <c r="N124" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P124" t="n">
         <v>0</v>
@@ -7045,31 +7037,31 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="B125" t="n">
-        <v>33.15000152587891</v>
+        <v>28.5</v>
       </c>
       <c r="C125" t="n">
-        <v>35.95000076293945</v>
+        <v>34.84999847412109</v>
       </c>
       <c r="D125" t="n">
-        <v>32.20000076293945</v>
+        <v>28.04999923706055</v>
       </c>
       <c r="E125" t="n">
-        <v>34.54999923706055</v>
+        <v>32.95000076293945</v>
       </c>
       <c r="F125" t="n">
-        <v>33.692626953125</v>
+        <v>32.13233184814453</v>
       </c>
       <c r="G125" t="n">
-        <v>70640936</v>
+        <v>143341550</v>
       </c>
       <c r="H125" t="n">
         <v>2022</v>
       </c>
       <c r="I125" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J125" t="n">
         <v>1</v>
@@ -7084,7 +7076,7 @@
         <v>0</v>
       </c>
       <c r="N125" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O125" t="n">
         <v>0</v>
@@ -7098,31 +7090,31 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="B126" t="n">
-        <v>33.90000152587891</v>
+        <v>33.15000152587891</v>
       </c>
       <c r="C126" t="n">
-        <v>36.95000076293945</v>
+        <v>35.95000076293945</v>
       </c>
       <c r="D126" t="n">
-        <v>29.79999923706055</v>
+        <v>32.20000076293945</v>
       </c>
       <c r="E126" t="n">
-        <v>30.75</v>
+        <v>34.54999923706055</v>
       </c>
       <c r="F126" t="n">
-        <v>29.98692321777344</v>
+        <v>33.692626953125</v>
       </c>
       <c r="G126" t="n">
-        <v>76058388</v>
+        <v>70640936</v>
       </c>
       <c r="H126" t="n">
         <v>2022</v>
       </c>
       <c r="I126" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J126" t="n">
         <v>1</v>
@@ -7137,7 +7129,7 @@
         <v>0</v>
       </c>
       <c r="N126" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O126" t="n">
         <v>0</v>
@@ -7151,31 +7143,31 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B127" t="n">
-        <v>30.85000038146973</v>
+        <v>33.90000152587891</v>
       </c>
       <c r="C127" t="n">
-        <v>33.59999847412109</v>
+        <v>36.95000076293945</v>
       </c>
       <c r="D127" t="n">
-        <v>30.10000038146973</v>
+        <v>29.79999923706055</v>
       </c>
       <c r="E127" t="n">
-        <v>32.45000076293945</v>
+        <v>30.75</v>
       </c>
       <c r="F127" t="n">
-        <v>32.10941696166992</v>
+        <v>29.98692321777344</v>
       </c>
       <c r="G127" t="n">
-        <v>47475048</v>
+        <v>76058388</v>
       </c>
       <c r="H127" t="n">
         <v>2022</v>
       </c>
       <c r="I127" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J127" t="n">
         <v>1</v>
@@ -7190,7 +7182,7 @@
         <v>0</v>
       </c>
       <c r="N127" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O127" t="n">
         <v>0</v>
@@ -7199,36 +7191,36 @@
         <v>0</v>
       </c>
       <c r="Q127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B128" t="n">
-        <v>32.59999847412109</v>
+        <v>30.85000038146973</v>
       </c>
       <c r="C128" t="n">
-        <v>43.75</v>
+        <v>33.59999847412109</v>
       </c>
       <c r="D128" t="n">
-        <v>32.40000152587891</v>
+        <v>30.10000038146973</v>
       </c>
       <c r="E128" t="n">
-        <v>42.54999923706055</v>
+        <v>32.45000076293945</v>
       </c>
       <c r="F128" t="n">
-        <v>42.10341262817383</v>
+        <v>32.10941696166992</v>
       </c>
       <c r="G128" t="n">
-        <v>322087207</v>
+        <v>47475048</v>
       </c>
       <c r="H128" t="n">
         <v>2022</v>
       </c>
       <c r="I128" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J128" t="n">
         <v>1</v>
@@ -7243,45 +7235,45 @@
         <v>0</v>
       </c>
       <c r="N128" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P128" t="n">
         <v>0</v>
       </c>
       <c r="Q128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B129" t="n">
-        <v>42.95000076293945</v>
+        <v>32.59999847412109</v>
       </c>
       <c r="C129" t="n">
         <v>43.75</v>
       </c>
       <c r="D129" t="n">
-        <v>33.79999923706055</v>
+        <v>32.40000152587891</v>
       </c>
       <c r="E129" t="n">
-        <v>38.79999923706055</v>
+        <v>42.54999923706055</v>
       </c>
       <c r="F129" t="n">
-        <v>38.39276885986328</v>
+        <v>42.10341262817383</v>
       </c>
       <c r="G129" t="n">
-        <v>181196335</v>
+        <v>322087207</v>
       </c>
       <c r="H129" t="n">
         <v>2022</v>
       </c>
       <c r="I129" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J129" t="n">
         <v>1</v>
@@ -7296,7 +7288,7 @@
         <v>0</v>
       </c>
       <c r="N129" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O129" t="n">
         <v>1</v>
@@ -7310,31 +7302,31 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44927</v>
+        <v>44896</v>
       </c>
       <c r="B130" t="n">
-        <v>39</v>
+        <v>42.95000076293945</v>
       </c>
       <c r="C130" t="n">
-        <v>41.34999847412109</v>
+        <v>43.75</v>
       </c>
       <c r="D130" t="n">
-        <v>35.15000152587891</v>
+        <v>33.79999923706055</v>
       </c>
       <c r="E130" t="n">
-        <v>36.59999847412109</v>
+        <v>38.79999923706055</v>
       </c>
       <c r="F130" t="n">
-        <v>36.21585845947266</v>
+        <v>38.39276885986328</v>
       </c>
       <c r="G130" t="n">
-        <v>107937763</v>
+        <v>181196335</v>
       </c>
       <c r="H130" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J130" t="n">
         <v>1</v>
@@ -7349,10 +7341,10 @@
         <v>0</v>
       </c>
       <c r="N130" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P130" t="n">
         <v>0</v>
@@ -7363,31 +7355,31 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B131" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C131" t="n">
-        <v>37.79999923706055</v>
+        <v>41.34999847412109</v>
       </c>
       <c r="D131" t="n">
-        <v>32.29999923706055</v>
+        <v>35.15000152587891</v>
       </c>
       <c r="E131" t="n">
-        <v>33.29999923706055</v>
+        <v>36.59999847412109</v>
       </c>
       <c r="F131" t="n">
-        <v>32.95049667358398</v>
+        <v>36.21585845947266</v>
       </c>
       <c r="G131" t="n">
-        <v>66931947</v>
+        <v>107937763</v>
       </c>
       <c r="H131" t="n">
         <v>2023</v>
       </c>
       <c r="I131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J131" t="n">
         <v>1</v>
@@ -7402,7 +7394,7 @@
         <v>0</v>
       </c>
       <c r="N131" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O131" t="n">
         <v>0</v>
@@ -7416,31 +7408,31 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B132" t="n">
-        <v>33.34999847412109</v>
+        <v>37</v>
       </c>
       <c r="C132" t="n">
-        <v>38.54999923706055</v>
+        <v>37.79999923706055</v>
       </c>
       <c r="D132" t="n">
-        <v>30.95000076293945</v>
+        <v>32.29999923706055</v>
       </c>
       <c r="E132" t="n">
-        <v>35.45000076293945</v>
+        <v>33.29999923706055</v>
       </c>
       <c r="F132" t="n">
-        <v>35.07793045043945</v>
+        <v>32.95049667358398</v>
       </c>
       <c r="G132" t="n">
-        <v>156702740</v>
+        <v>66931947</v>
       </c>
       <c r="H132" t="n">
         <v>2023</v>
       </c>
       <c r="I132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J132" t="n">
         <v>1</v>
@@ -7455,45 +7447,45 @@
         <v>0</v>
       </c>
       <c r="N132" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P132" t="n">
         <v>0</v>
       </c>
       <c r="Q132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B133" t="n">
+        <v>33.34999847412109</v>
+      </c>
+      <c r="C133" t="n">
+        <v>38.54999923706055</v>
+      </c>
+      <c r="D133" t="n">
+        <v>30.95000076293945</v>
+      </c>
+      <c r="E133" t="n">
         <v>35.45000076293945</v>
       </c>
-      <c r="C133" t="n">
-        <v>40.20000076293945</v>
-      </c>
-      <c r="D133" t="n">
-        <v>35.29999923706055</v>
-      </c>
-      <c r="E133" t="n">
-        <v>39.29999923706055</v>
-      </c>
       <c r="F133" t="n">
-        <v>38.88752365112305</v>
+        <v>35.07793045043945</v>
       </c>
       <c r="G133" t="n">
-        <v>120383738</v>
+        <v>156702740</v>
       </c>
       <c r="H133" t="n">
         <v>2023</v>
       </c>
       <c r="I133" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J133" t="n">
         <v>1</v>
@@ -7508,13 +7500,13 @@
         <v>0</v>
       </c>
       <c r="N133" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q133" t="n">
         <v>2</v>
@@ -7522,31 +7514,31 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B134" t="n">
+        <v>35.45000076293945</v>
+      </c>
+      <c r="C134" t="n">
+        <v>40.20000076293945</v>
+      </c>
+      <c r="D134" t="n">
+        <v>35.29999923706055</v>
+      </c>
+      <c r="E134" t="n">
         <v>39.29999923706055</v>
       </c>
-      <c r="C134" t="n">
-        <v>44.20000076293945</v>
-      </c>
-      <c r="D134" t="n">
-        <v>39.15000152587891</v>
-      </c>
-      <c r="E134" t="n">
-        <v>42.34999847412109</v>
-      </c>
       <c r="F134" t="n">
-        <v>41.90550994873047</v>
+        <v>38.88752365112305</v>
       </c>
       <c r="G134" t="n">
-        <v>239527429</v>
+        <v>120383738</v>
       </c>
       <c r="H134" t="n">
         <v>2023</v>
       </c>
       <c r="I134" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J134" t="n">
         <v>1</v>
@@ -7561,45 +7553,45 @@
         <v>0</v>
       </c>
       <c r="N134" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O134" t="n">
         <v>0</v>
       </c>
       <c r="P134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B135" t="n">
+        <v>39.29999923706055</v>
+      </c>
+      <c r="C135" t="n">
+        <v>44.20000076293945</v>
+      </c>
+      <c r="D135" t="n">
+        <v>39.15000152587891</v>
+      </c>
+      <c r="E135" t="n">
         <v>42.34999847412109</v>
       </c>
-      <c r="C135" t="n">
-        <v>44.70000076293945</v>
-      </c>
-      <c r="D135" t="n">
-        <v>38.20000076293945</v>
-      </c>
-      <c r="E135" t="n">
-        <v>39.59999847412109</v>
-      </c>
       <c r="F135" t="n">
-        <v>39.18437194824219</v>
+        <v>41.90550994873047</v>
       </c>
       <c r="G135" t="n">
-        <v>147944936</v>
+        <v>239527429</v>
       </c>
       <c r="H135" t="n">
         <v>2023</v>
       </c>
       <c r="I135" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J135" t="n">
         <v>1</v>
@@ -7614,7 +7606,7 @@
         <v>0</v>
       </c>
       <c r="N135" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O135" t="n">
         <v>0</v>
@@ -7628,31 +7620,31 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B136" t="n">
-        <v>40</v>
+        <v>42.34999847412109</v>
       </c>
       <c r="C136" t="n">
-        <v>46.5</v>
+        <v>44.70000076293945</v>
       </c>
       <c r="D136" t="n">
-        <v>38.90000152587891</v>
+        <v>38.20000076293945</v>
       </c>
       <c r="E136" t="n">
-        <v>46.15000152587891</v>
+        <v>39.59999847412109</v>
       </c>
       <c r="F136" t="n">
-        <v>45.66563034057617</v>
+        <v>39.18437194824219</v>
       </c>
       <c r="G136" t="n">
-        <v>237859733</v>
+        <v>147944936</v>
       </c>
       <c r="H136" t="n">
         <v>2023</v>
       </c>
       <c r="I136" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J136" t="n">
         <v>1</v>
@@ -7667,7 +7659,7 @@
         <v>0</v>
       </c>
       <c r="N136" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O136" t="n">
         <v>0</v>
@@ -7676,36 +7668,36 @@
         <v>0</v>
       </c>
       <c r="Q136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B137" t="n">
-        <v>46.45000076293945</v>
+        <v>40</v>
       </c>
       <c r="C137" t="n">
-        <v>52.5</v>
+        <v>46.5</v>
       </c>
       <c r="D137" t="n">
-        <v>43.34999847412109</v>
+        <v>38.90000152587891</v>
       </c>
       <c r="E137" t="n">
-        <v>51.45000076293945</v>
+        <v>46.15000152587891</v>
       </c>
       <c r="F137" t="n">
-        <v>50.91000366210938</v>
+        <v>45.66563034057617</v>
       </c>
       <c r="G137" t="n">
-        <v>438197663</v>
+        <v>237859733</v>
       </c>
       <c r="H137" t="n">
         <v>2023</v>
       </c>
       <c r="I137" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J137" t="n">
         <v>1</v>
@@ -7720,7 +7712,7 @@
         <v>0</v>
       </c>
       <c r="N137" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O137" t="n">
         <v>0</v>
@@ -7729,36 +7721,36 @@
         <v>0</v>
       </c>
       <c r="Q137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B138" t="n">
+        <v>46.45000076293945</v>
+      </c>
+      <c r="C138" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="D138" t="n">
+        <v>43.34999847412109</v>
+      </c>
+      <c r="E138" t="n">
         <v>51.45000076293945</v>
       </c>
-      <c r="C138" t="n">
-        <v>63.59999847412109</v>
-      </c>
-      <c r="D138" t="n">
-        <v>51.34999847412109</v>
-      </c>
-      <c r="E138" t="n">
-        <v>58.5</v>
-      </c>
       <c r="F138" t="n">
-        <v>57.88600540161133</v>
+        <v>50.91000366210938</v>
       </c>
       <c r="G138" t="n">
-        <v>678290153</v>
+        <v>438197663</v>
       </c>
       <c r="H138" t="n">
         <v>2023</v>
       </c>
       <c r="I138" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J138" t="n">
         <v>1</v>
@@ -7773,7 +7765,7 @@
         <v>0</v>
       </c>
       <c r="N138" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O138" t="n">
         <v>0</v>
@@ -7787,31 +7779,31 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B139" t="n">
+        <v>51.45000076293945</v>
+      </c>
+      <c r="C139" t="n">
+        <v>63.59999847412109</v>
+      </c>
+      <c r="D139" t="n">
+        <v>51.34999847412109</v>
+      </c>
+      <c r="E139" t="n">
         <v>58.5</v>
       </c>
-      <c r="C139" t="n">
-        <v>74.34999847412109</v>
-      </c>
-      <c r="D139" t="n">
-        <v>56.84999847412109</v>
-      </c>
-      <c r="E139" t="n">
-        <v>65.59999847412109</v>
-      </c>
       <c r="F139" t="n">
-        <v>65.59999847412109</v>
+        <v>57.88600540161133</v>
       </c>
       <c r="G139" t="n">
-        <v>1037550729</v>
+        <v>678290153</v>
       </c>
       <c r="H139" t="n">
         <v>2023</v>
       </c>
       <c r="I139" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J139" t="n">
         <v>1</v>
@@ -7826,7 +7818,7 @@
         <v>0</v>
       </c>
       <c r="N139" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O139" t="n">
         <v>0</v>
@@ -7840,31 +7832,31 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B140" t="n">
-        <v>66</v>
+        <v>58.5</v>
       </c>
       <c r="C140" t="n">
-        <v>76.5</v>
+        <v>74.34999847412109</v>
       </c>
       <c r="D140" t="n">
-        <v>63.79999923706055</v>
+        <v>56.84999847412109</v>
       </c>
       <c r="E140" t="n">
-        <v>76.09999847412109</v>
+        <v>65.59999847412109</v>
       </c>
       <c r="F140" t="n">
-        <v>76.09999847412109</v>
+        <v>65.59999847412109</v>
       </c>
       <c r="G140" t="n">
-        <v>427213109</v>
+        <v>1037550729</v>
       </c>
       <c r="H140" t="n">
         <v>2023</v>
       </c>
       <c r="I140" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J140" t="n">
         <v>1</v>
@@ -7879,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="N140" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O140" t="n">
         <v>0</v>
@@ -7893,31 +7885,31 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B141" t="n">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C141" t="n">
-        <v>85.90000152587891</v>
+        <v>76.5</v>
       </c>
       <c r="D141" t="n">
-        <v>72.5</v>
+        <v>63.79999923706055</v>
       </c>
       <c r="E141" t="n">
-        <v>81.55000305175781</v>
+        <v>76.09999847412109</v>
       </c>
       <c r="F141" t="n">
-        <v>81.55000305175781</v>
+        <v>76.09999847412109</v>
       </c>
       <c r="G141" t="n">
-        <v>557106467</v>
+        <v>427213109</v>
       </c>
       <c r="H141" t="n">
         <v>2023</v>
       </c>
       <c r="I141" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J141" t="n">
         <v>1</v>
@@ -7932,7 +7924,7 @@
         <v>0</v>
       </c>
       <c r="N141" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O141" t="n">
         <v>0</v>
@@ -7946,31 +7938,31 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B142" t="n">
-        <v>81.94999694824219</v>
+        <v>77</v>
       </c>
       <c r="C142" t="n">
-        <v>136.3000030517578</v>
+        <v>85.90000152587891</v>
       </c>
       <c r="D142" t="n">
-        <v>79</v>
+        <v>72.5</v>
       </c>
       <c r="E142" t="n">
-        <v>129.4499969482422</v>
+        <v>81.55000305175781</v>
       </c>
       <c r="F142" t="n">
-        <v>129.4499969482422</v>
+        <v>81.55000305175781</v>
       </c>
       <c r="G142" t="n">
-        <v>1408354460</v>
+        <v>557106467</v>
       </c>
       <c r="H142" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="I142" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J142" t="n">
         <v>1</v>
@@ -7985,7 +7977,7 @@
         <v>0</v>
       </c>
       <c r="N142" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O142" t="n">
         <v>0</v>
@@ -7999,31 +7991,31 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B143" t="n">
-        <v>131</v>
+        <v>81.94999694824219</v>
       </c>
       <c r="C143" t="n">
-        <v>176.8500061035156</v>
+        <v>136.3000030517578</v>
       </c>
       <c r="D143" t="n">
-        <v>120.75</v>
+        <v>79</v>
       </c>
       <c r="E143" t="n">
-        <v>135.25</v>
+        <v>129.4499969482422</v>
       </c>
       <c r="F143" t="n">
-        <v>135.25</v>
+        <v>129.4499969482422</v>
       </c>
       <c r="G143" t="n">
-        <v>924087367</v>
+        <v>1408354460</v>
       </c>
       <c r="H143" t="n">
         <v>2024</v>
       </c>
       <c r="I143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J143" t="n">
         <v>1</v>
@@ -8038,10 +8030,10 @@
         <v>0</v>
       </c>
       <c r="N143" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P143" t="n">
         <v>0</v>
@@ -8052,31 +8044,31 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B144" t="n">
-        <v>137.8000030517578</v>
+        <v>131</v>
       </c>
       <c r="C144" t="n">
-        <v>139.4499969482422</v>
+        <v>176.8500061035156</v>
       </c>
       <c r="D144" t="n">
-        <v>105.0999984741211</v>
+        <v>120.75</v>
       </c>
       <c r="E144" t="n">
-        <v>118.9000015258789</v>
+        <v>135.25</v>
       </c>
       <c r="F144" t="n">
-        <v>118.9000015258789</v>
+        <v>135.25</v>
       </c>
       <c r="G144" t="n">
-        <v>206673873</v>
+        <v>924087367</v>
       </c>
       <c r="H144" t="n">
         <v>2024</v>
       </c>
       <c r="I144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J144" t="n">
         <v>1</v>
@@ -8091,10 +8083,10 @@
         <v>0</v>
       </c>
       <c r="N144" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P144" t="n">
         <v>0</v>
@@ -8105,31 +8097,31 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B145" t="n">
-        <v>120.9000015258789</v>
+        <v>137.8000030517578</v>
       </c>
       <c r="C145" t="n">
-        <v>144.6999969482422</v>
+        <v>139.4499969482422</v>
       </c>
       <c r="D145" t="n">
+        <v>105.0999984741211</v>
+      </c>
+      <c r="E145" t="n">
         <v>118.9000015258789</v>
       </c>
-      <c r="E145" t="n">
-        <v>139.75</v>
-      </c>
       <c r="F145" t="n">
-        <v>139.75</v>
+        <v>118.9000015258789</v>
       </c>
       <c r="G145" t="n">
-        <v>350213405</v>
+        <v>206673873</v>
       </c>
       <c r="H145" t="n">
         <v>2024</v>
       </c>
       <c r="I145" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J145" t="n">
         <v>1</v>
@@ -8144,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="N145" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O145" t="n">
         <v>0</v>
@@ -8158,31 +8150,31 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B146" t="n">
+        <v>120.9000015258789</v>
+      </c>
+      <c r="C146" t="n">
+        <v>144.6999969482422</v>
+      </c>
+      <c r="D146" t="n">
+        <v>118.9000015258789</v>
+      </c>
+      <c r="E146" t="n">
         <v>139.75</v>
       </c>
-      <c r="C146" t="n">
-        <v>152.8500061035156</v>
-      </c>
-      <c r="D146" t="n">
-        <v>126.5500030517578</v>
-      </c>
-      <c r="E146" t="n">
-        <v>142.3999938964844</v>
-      </c>
       <c r="F146" t="n">
-        <v>142.3999938964844</v>
+        <v>139.75</v>
       </c>
       <c r="G146" t="n">
-        <v>345274859</v>
+        <v>350213405</v>
       </c>
       <c r="H146" t="n">
         <v>2024</v>
       </c>
       <c r="I146" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J146" t="n">
         <v>1</v>
@@ -8197,7 +8189,7 @@
         <v>0</v>
       </c>
       <c r="N146" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O146" t="n">
         <v>0</v>
@@ -8211,56 +8203,514 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B147" t="n">
-        <v>155</v>
+        <v>139.75</v>
       </c>
       <c r="C147" t="n">
-        <v>156</v>
+        <v>152.8500061035156</v>
       </c>
       <c r="D147" t="n">
-        <v>122.0500030517578</v>
+        <v>126.5500030517578</v>
       </c>
       <c r="E147" t="n">
-        <v>144.1000061035156</v>
+        <v>142.3999938964844</v>
       </c>
       <c r="F147" t="n">
-        <v>144.1000061035156</v>
+        <v>142.3999938964844</v>
       </c>
       <c r="G147" t="n">
-        <v>152401101</v>
+        <v>345274859</v>
       </c>
       <c r="H147" t="n">
         <v>2024</v>
       </c>
       <c r="I147" t="n">
+        <v>5</v>
+      </c>
+      <c r="J147" t="n">
+        <v>1</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N147" t="n">
+        <v>18</v>
+      </c>
+      <c r="O147" t="n">
+        <v>0</v>
+      </c>
+      <c r="P147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B148" t="n">
+        <v>155</v>
+      </c>
+      <c r="C148" t="n">
+        <v>156</v>
+      </c>
+      <c r="D148" t="n">
+        <v>122.0500030517578</v>
+      </c>
+      <c r="E148" t="n">
+        <v>144.1000061035156</v>
+      </c>
+      <c r="F148" t="n">
+        <v>144.1000061035156</v>
+      </c>
+      <c r="G148" t="n">
+        <v>152401101</v>
+      </c>
+      <c r="H148" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I148" t="n">
         <v>6</v>
       </c>
-      <c r="J147" t="n">
-        <v>1</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0</v>
-      </c>
-      <c r="L147" t="n">
-        <v>0</v>
-      </c>
-      <c r="M147" t="n">
-        <v>0</v>
-      </c>
-      <c r="N147" t="n">
+      <c r="J148" t="n">
+        <v>1</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N148" t="n">
         <v>22</v>
       </c>
-      <c r="O147" t="n">
-        <v>0</v>
-      </c>
-      <c r="P147" t="n">
+      <c r="O148" t="n">
+        <v>0</v>
+      </c>
+      <c r="P148" t="n">
         <v>2</v>
       </c>
-      <c r="Q147" t="n">
+      <c r="Q148" t="n">
         <v>2</v>
       </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B149" t="n">
+        <v>103.4383899690045</v>
+      </c>
+      <c r="C149" t="n">
+        <v>130.6652555657768</v>
+      </c>
+      <c r="D149" t="n">
+        <v>98.9379136512061</v>
+      </c>
+      <c r="E149" t="n">
+        <v>119.4041900634766</v>
+      </c>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="n">
+        <v>1297626145</v>
+      </c>
+      <c r="H149" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I149" t="n">
+        <v>7</v>
+      </c>
+      <c r="J149" t="n">
+        <v>1</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N149" t="n">
+        <v>27</v>
+      </c>
+      <c r="O149" t="inlineStr"/>
+      <c r="P149" t="inlineStr"/>
+      <c r="Q149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B150" t="n">
+        <v>120.3859936966124</v>
+      </c>
+      <c r="C150" t="n">
+        <v>138.2099651161314</v>
+      </c>
+      <c r="D150" t="n">
+        <v>107.40512327121</v>
+      </c>
+      <c r="E150" t="n">
+        <v>122.8042526245117</v>
+      </c>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="n">
+        <v>1407474242</v>
+      </c>
+      <c r="H150" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I150" t="n">
+        <v>8</v>
+      </c>
+      <c r="J150" t="n">
+        <v>1</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N150" t="n">
+        <v>31</v>
+      </c>
+      <c r="O150" t="inlineStr"/>
+      <c r="P150" t="inlineStr"/>
+      <c r="Q150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B151" t="n">
+        <v>124.8666974596699</v>
+      </c>
+      <c r="C151" t="n">
+        <v>126.5140128213401</v>
+      </c>
+      <c r="D151" t="n">
+        <v>110.6997612186726</v>
+      </c>
+      <c r="E151" t="n">
+        <v>118.145637512207</v>
+      </c>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="n">
+        <v>405581043</v>
+      </c>
+      <c r="H151" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I151" t="n">
+        <v>9</v>
+      </c>
+      <c r="J151" t="n">
+        <v>1</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N151" t="n">
+        <v>35</v>
+      </c>
+      <c r="O151" t="inlineStr"/>
+      <c r="P151" t="inlineStr"/>
+      <c r="Q151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B152" t="n">
+        <v>119.2245759598483</v>
+      </c>
+      <c r="C152" t="n">
+        <v>120.350583822555</v>
+      </c>
+      <c r="D152" t="n">
+        <v>84.65938340321095</v>
+      </c>
+      <c r="E152" t="n">
+        <v>96.56197357177734</v>
+      </c>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="n">
+        <v>234442123</v>
+      </c>
+      <c r="H152" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I152" t="n">
+        <v>10</v>
+      </c>
+      <c r="J152" t="n">
+        <v>1</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N152" t="n">
+        <v>40</v>
+      </c>
+      <c r="O152" t="inlineStr"/>
+      <c r="P152" t="inlineStr"/>
+      <c r="Q152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B153" t="n">
+        <v>97.26738735422654</v>
+      </c>
+      <c r="C153" t="n">
+        <v>101.2316024891489</v>
+      </c>
+      <c r="D153" t="n">
+        <v>86.20930278509827</v>
+      </c>
+      <c r="E153" t="n">
+        <v>98.578857421875</v>
+      </c>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="n">
+        <v>143891922</v>
+      </c>
+      <c r="H153" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I153" t="n">
+        <v>11</v>
+      </c>
+      <c r="J153" t="n">
+        <v>1</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N153" t="n">
+        <v>44</v>
+      </c>
+      <c r="O153" t="inlineStr"/>
+      <c r="P153" t="inlineStr"/>
+      <c r="Q153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B154" t="n">
+        <v>97.12828874668146</v>
+      </c>
+      <c r="C154" t="n">
+        <v>104.5202072060109</v>
+      </c>
+      <c r="D154" t="n">
+        <v>87.15316511092938</v>
+      </c>
+      <c r="E154" t="n">
+        <v>92.349365234375</v>
+      </c>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="n">
+        <v>153369924</v>
+      </c>
+      <c r="H154" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I154" t="n">
+        <v>12</v>
+      </c>
+      <c r="J154" t="n">
+        <v>1</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N154" t="n">
+        <v>48</v>
+      </c>
+      <c r="O154" t="inlineStr"/>
+      <c r="P154" t="inlineStr"/>
+      <c r="Q154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B155" t="n">
+        <v>92.00162959852078</v>
+      </c>
+      <c r="C155" t="n">
+        <v>100.0492869596917</v>
+      </c>
+      <c r="D155" t="n">
+        <v>77.88345363839551</v>
+      </c>
+      <c r="E155" t="n">
+        <v>99.18491363525391</v>
+      </c>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="n">
+        <v>301705593</v>
+      </c>
+      <c r="H155" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="n">
+        <v>1</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N155" t="n">
+        <v>1</v>
+      </c>
+      <c r="O155" t="inlineStr"/>
+      <c r="P155" t="inlineStr"/>
+      <c r="Q155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B156" t="n">
+        <v>99.35381562918002</v>
+      </c>
+      <c r="C156" t="n">
+        <v>103.4770004938099</v>
+      </c>
+      <c r="D156" t="n">
+        <v>72.03151633115552</v>
+      </c>
+      <c r="E156" t="n">
+        <v>72.38919067382812</v>
+      </c>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="n">
+        <v>247712590</v>
+      </c>
+      <c r="H156" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I156" t="n">
+        <v>2</v>
+      </c>
+      <c r="J156" t="n">
+        <v>1</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N156" t="n">
+        <v>5</v>
+      </c>
+      <c r="O156" t="inlineStr"/>
+      <c r="P156" t="inlineStr"/>
+      <c r="Q156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B157" t="n">
+        <v>73.06999969482422</v>
+      </c>
+      <c r="C157" t="n">
+        <v>86.30000305175781</v>
+      </c>
+      <c r="D157" t="n">
+        <v>70.80000305175781</v>
+      </c>
+      <c r="E157" t="n">
+        <v>81.88999938964844</v>
+      </c>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="n">
+        <v>217997539</v>
+      </c>
+      <c r="H157" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I157" t="n">
+        <v>3</v>
+      </c>
+      <c r="J157" t="n">
+        <v>1</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N157" t="n">
+        <v>9</v>
+      </c>
+      <c r="O157" t="inlineStr"/>
+      <c r="P157" t="inlineStr"/>
+      <c r="Q157" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
